--- a/analyse/6-国泰君安/汇总.xlsx
+++ b/analyse/6-国泰君安/汇总.xlsx
@@ -5,28 +5,28 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Investment\交割单\6-国泰君安\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="3345" windowWidth="20475" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19125"/>
   </bookViews>
   <sheets>
     <sheet name="透析" sheetId="3" r:id="rId1"/>
     <sheet name="数据" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数据!$A$1:$R$816</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数据!$A$1:$R$857</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="380">
   <si>
     <t>成交日期</t>
   </si>
@@ -1107,23 +1107,64 @@
     <t>LF16536</t>
   </si>
   <si>
-    <t>新华保险</t>
+    <t>LF004725</t>
+  </si>
+  <si>
+    <t>LF009740</t>
+  </si>
+  <si>
+    <t>LF000283</t>
+  </si>
+  <si>
+    <t>湖盐申购</t>
+  </si>
+  <si>
+    <t>LF010404</t>
+  </si>
+  <si>
+    <t>LF005837</t>
+  </si>
+  <si>
+    <t>LF014595</t>
+  </si>
+  <si>
+    <t>湖南盐业</t>
+  </si>
+  <si>
+    <t>LF006006</t>
+  </si>
+  <si>
+    <t>LF011397</t>
+  </si>
+  <si>
+    <t>LF013983</t>
+  </si>
+  <si>
+    <t>LF006077</t>
+  </si>
+  <si>
+    <t>LF011819</t>
+  </si>
+  <si>
+    <t>达华智能</t>
+  </si>
+  <si>
+    <t>LF011896</t>
+  </si>
+  <si>
+    <t>达华智能</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>潍柴动力</t>
+    <t>富春股份</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>凯龙股份</t>
+    <t>三安光电</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>金石资源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>华鑫股份</t>
+    <t>湖南盐业</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1131,12 +1172,6 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>LF004725</t>
-  </si>
-  <si>
-    <t>LF009740</t>
   </si>
 </sst>
 </file>
@@ -2131,17 +2166,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>透析!$A$2:$A$65</c:f>
+              <c:f>透析!$A$2:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>300556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600703</c:v>
+                  <c:v>2828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2828</c:v>
+                  <c:v>600703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>600595</c:v>
@@ -2150,177 +2185,183 @@
                   <c:v>601212</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>600929</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>600184</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>601611</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>600480</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>600025</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>603309</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>601628</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600438</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>300108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2697</c:v>
+                  <c:v>600621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300473</c:v>
+                  <c:v>2697</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>300473</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2102</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>601158</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>600203</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>2537</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>600455</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>300482</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>603958</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>2252</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>600456</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>510300</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>600513</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
+                  <c:v>2512</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2344</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>600319</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>159915</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>600218</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>600839</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>2153</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>300304</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>2537</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>2224</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>2291</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>600438</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>600048</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>718</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>807</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>600621</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>600153</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>540</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>300428</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>806</c:v>
+                <c:pt idx="48">
+                  <c:v>2783</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>603811</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>510050</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>600177</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>2783</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>2613</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>338</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>902</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>603505</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>2820</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>300325</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>601336</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>603800</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>2803</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>761</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>300299</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>961</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>603015</c:v>
                 </c:pt>
               </c:strCache>
@@ -2328,18 +2369,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>透析!$B$2:$B$65</c:f>
+              <c:f>透析!$B$2:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_ ;[Red]\-#,##0.00\ </c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>44061.039999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20748.400000000038</c:v>
+                  <c:v>12636.330000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12636.330000000002</c:v>
+                  <c:v>10962.279999999977</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9978.2499999999854</c:v>
@@ -2348,177 +2389,183 @@
                   <c:v>8884.11</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>7820</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7334.0300000000207</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4830.8500000000167</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4682.9100000000035</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3379.33</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2856.8100000000049</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2596.1899999999878</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2083.1700000000055</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1864.7699999999968</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>1542.1699999999983</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1140.630000000001</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>1101.8600000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1084.380000000001</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>777.52999999999884</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>571.44999999999709</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>394.2400000000016</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>295.30999999999767</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>239.47000000000116</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>235.02000000000407</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>124.88999999999942</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>108.93000000000029</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>103.38000000000102</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>74.309999999997672</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>69.169999999998254</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>35.659999999999854</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>19.580000000001746</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
+                  <c:v>-7.3499999999985448</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>-107.19000000000051</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>-280.69000000000051</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>-333.17000000004191</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>-558.97999999999956</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>-583.05000000000291</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>-602.36000000000058</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>-869.99999999999636</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>-999.24000000000524</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>-1008.2900000000009</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>-1153.1200000000063</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>-1153.6700000000055</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>-1220.260000000013</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>-1293.6100000000006</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>-1491.8999999999869</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>-1544.6800000000003</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>-1859.1899999999805</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>-1891.4100000000035</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>-1900.6900000000023</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>-2132.1899999999987</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>-2460.8999999999978</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>-2637.3299999999945</c:v>
+                <c:pt idx="48">
+                  <c:v>-2724.4799999999996</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>-2945.5499999999993</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>-3018.580000000009</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>-3193.2900000000009</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>-3284.6499999999978</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>-3346.1600000000035</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>-3771.630000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-4636.3700000000026</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>-5143.4500000000116</c:v>
+                  <c:v>-3510.8500000000022</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>-4636.3699999999917</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-5040.2900000000081</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>-5763.0799999999981</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>-6366.5900000000038</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>-7622.3000000000102</c:v>
+                <c:pt idx="58">
+                  <c:v>-7698.6000000000276</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>-7889.7499999999818</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>-8415.93</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>-8493.61</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>-10820.930000000002</c:v>
+                <c:pt idx="62">
+                  <c:v>-10828.359999999995</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>-12884.87999999999</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>-23307.919999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -2542,17 +2589,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>透析!$A$2:$A$65</c:f>
+              <c:f>透析!$A$2:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>300556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600703</c:v>
+                  <c:v>2828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2828</c:v>
+                  <c:v>600703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>600595</c:v>
@@ -2561,177 +2608,183 @@
                   <c:v>601212</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>600929</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>600184</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>601611</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>600480</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>600025</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>603309</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>601628</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600438</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>300108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2697</c:v>
+                  <c:v>600621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300473</c:v>
+                  <c:v>2697</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>300473</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2102</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>601158</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>600203</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>2537</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>600455</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>300482</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>603958</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>2252</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>600456</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>510300</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>600513</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
+                  <c:v>2512</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2344</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>600319</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>159915</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>600218</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>600839</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>2153</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>300304</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>2537</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>2224</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>2291</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>600438</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>600048</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>718</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>807</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>600621</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>600153</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>540</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>300428</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>806</c:v>
+                <c:pt idx="48">
+                  <c:v>2783</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>603811</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>510050</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>600177</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>2783</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>2613</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>338</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>902</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>603505</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>2820</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>300325</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>601336</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>603800</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>2803</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>761</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>300299</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>961</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>603015</c:v>
                 </c:pt>
               </c:strCache>
@@ -2739,18 +2792,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>透析!$C$2:$C$65</c:f>
+              <c:f>透析!$C$2:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_ ;[Red]\-#,##0.00\ </c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>101.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1250.43</c:v>
+                  <c:v>18.670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.670000000000002</c:v>
+                  <c:v>1250.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>613.62000000000012</c:v>
@@ -2759,177 +2812,183 @@
                   <c:v>10.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>681.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>186.04000000000002</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>123.72</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5.56</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>126.99000000000001</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>148.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>112.01</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>169.43</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>134.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>61.78</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>90.28</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>32.75</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>50.46</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>96.92</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>31.84</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>26.97</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>38.089999999999996</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>166.48000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>29.96</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>36.5</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>27.55</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>30.51</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>63.1</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>65.59</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.19</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.31</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>8.6300000000000008</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>23.12</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>120.64000000000001</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>96.32</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>137.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>64.86</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>57.07</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>245.46999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>244.5</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>14.61</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>226.19</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>25.98</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>535.27</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>79.41</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>96.300000000000011</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>26.01</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>187.04000000000002</c:v>
+                <c:pt idx="48">
+                  <c:v>96.17</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>92.99</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>86.54</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>59.519999999999996</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>96.8</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>25.07</c:v>
+                <c:pt idx="53">
+                  <c:v>49.29</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>63.44</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>179.77</c:v>
+                <c:pt idx="55">
+                  <c:v>216.15</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>27.1</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>75.959999999999994</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>165.63</c:v>
+                <c:pt idx="58">
+                  <c:v>207.63000000000002</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>353.59000000000003</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>31.61</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>159.5</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>134.99</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>118.83000000000001</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>136.49</c:v>
                 </c:pt>
               </c:numCache>
@@ -2953,17 +3012,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>透析!$A$2:$A$65</c:f>
+              <c:f>透析!$A$2:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>300556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600703</c:v>
+                  <c:v>2828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2828</c:v>
+                  <c:v>600703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>600595</c:v>
@@ -2972,177 +3031,183 @@
                   <c:v>601212</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>600929</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>600184</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>601611</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>600480</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>600025</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>603309</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>601628</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600438</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>300108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2697</c:v>
+                  <c:v>600621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300473</c:v>
+                  <c:v>2697</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>300473</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2102</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>601158</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>600203</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>2537</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>600455</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>300482</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>603958</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>2252</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>600456</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>510300</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>600513</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
+                  <c:v>2512</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2344</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>600319</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>159915</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>600218</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>600839</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>2153</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>300304</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>2537</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>2224</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>2291</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>600438</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>600048</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>718</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>807</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>600621</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>600153</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>540</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>300428</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>806</c:v>
+                <c:pt idx="48">
+                  <c:v>2783</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>603811</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>510050</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>600177</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>2783</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>2613</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>338</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>902</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>603505</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>2820</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>300325</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>601336</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>603800</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>2803</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>761</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>300299</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>961</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>603015</c:v>
                 </c:pt>
               </c:strCache>
@@ -3150,18 +3215,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>透析!$D$2:$D$65</c:f>
+              <c:f>透析!$D$2:$D$67</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_ ;[Red]\-#,##0.00\ </c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>17.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>333.31999999999994</c:v>
+                  <c:v>3.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.35</c:v>
+                  <c:v>345.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>161.18</c:v>
@@ -3170,177 +3235,183 @@
                   <c:v>4.2699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>177.96</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>48.540000000000006</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>31.84</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.62</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>32.950000000000003</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>38.71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29.16</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>41.88</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>35.18</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>13.73</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>19.939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>7.16</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.129999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>21.48</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>5.9700000000000006</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>15.71</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>37.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>7.84</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>8.1</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>7.23</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>6.77</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>16.549999999999997</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>1.28</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>17.21</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>8.3800000000000008</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>8.7100000000000009</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>77.419999999999987</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>8.7800000000000011</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>6.79</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>27.259999999999994</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>21.520000000000003</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>30.650000000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>17.82</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>12.83</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>64.64</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>64.3</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>7.3</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>50.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>5.96</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>139.39999999999998</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>24.47</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>26.160000000000004</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>6.8100000000000005</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>6.07</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>41.88</c:v>
+                <c:pt idx="48">
+                  <c:v>29.07</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>24.770000000000003</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>45.13</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>23.1</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>21.16</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>21.89</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.65</c:v>
+                <c:pt idx="53">
+                  <c:v>11.51</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>18.3</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>48.169999999999995</c:v>
+                <c:pt idx="55">
+                  <c:v>57.39</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>6.66</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>17.590000000000003</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>45.18</c:v>
+                <c:pt idx="58">
+                  <c:v>55.51</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>93.809999999999988</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>7.95</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>41.109999999999992</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>31.32</c:v>
+                <c:pt idx="62">
+                  <c:v>35.46</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>28.830000000000002</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>42.11</c:v>
                 </c:pt>
               </c:numCache>
@@ -3364,17 +3435,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>透析!$A$2:$A$65</c:f>
+              <c:f>透析!$A$2:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>300556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600703</c:v>
+                  <c:v>2828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2828</c:v>
+                  <c:v>600703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>600595</c:v>
@@ -3383,177 +3454,183 @@
                   <c:v>601212</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>600929</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>600184</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>601611</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>600480</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>600025</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>603309</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>601628</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600438</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>300108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2697</c:v>
+                  <c:v>600621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300473</c:v>
+                  <c:v>2697</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>300473</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2102</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>601158</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>600203</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>2537</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>600455</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>300482</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>603958</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>2252</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>600456</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>510300</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>600513</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
+                  <c:v>2512</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2344</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>600319</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>159915</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>600218</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>600839</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>2153</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>300304</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>2537</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>2224</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>2291</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>600438</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>600048</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>718</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>807</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>600621</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>600153</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>540</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>300428</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>806</c:v>
+                <c:pt idx="48">
+                  <c:v>2783</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>603811</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>510050</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>600177</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>2783</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>2613</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>338</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>902</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>603505</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>2820</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>300325</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>601336</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>603800</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>2803</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>761</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>300299</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>961</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>603015</c:v>
                 </c:pt>
               </c:strCache>
@@ -3561,18 +3638,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>透析!$E$2:$E$65</c:f>
+              <c:f>透析!$E$2:$E$67</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_ ;[Red]\-#,##0.00\ </c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>13.889999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170.29999999999998</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.65</c:v>
+                  <c:v>176.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>83.590000000000018</c:v>
@@ -3581,177 +3658,183 @@
                   <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>93.100000000000023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>25.219999999999995</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>16.670000000000002</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.38</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>17.240000000000002</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>20.29</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>29.919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>18.429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>10.86</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>15.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>5.71</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.8800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17.149999999999999</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>4.3499999999999996</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>4.75</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>5.21</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>29.439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>4.1099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>6.4700000000000006</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>3.76</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>5.41</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>8.66</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>1.62</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>1.29</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>73.450000000000017</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>1.22</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>3.21</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>21.459999999999997</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>17.16</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>24.389999999999997</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>11.61</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>10.219999999999999</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>33.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>33.660000000000004</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>2.7</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>40.28</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>4.74</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>95.21999999999997</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>13.35</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>5.38</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>4.82</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>33.409999999999997</c:v>
+                <c:pt idx="48">
+                  <c:v>17.239999999999998</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>12.99</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>36.949999999999996</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>12.13</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>10.97</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>17.47</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.91</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>11.63</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>25.18</c:v>
+                  <c:v>9.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>11.629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>5.32</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>14.040000000000001</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>23.62</c:v>
+                <c:pt idx="58">
+                  <c:v>29.02</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>49.07</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>6.3699999999999992</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>24.919999999999998</c:v>
+                <c:pt idx="62">
+                  <c:v>28.209999999999997</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>22.22</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>20.380000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -3775,17 +3858,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>透析!$A$2:$A$65</c:f>
+              <c:f>透析!$A$2:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>300556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600703</c:v>
+                  <c:v>2828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2828</c:v>
+                  <c:v>600703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>600595</c:v>
@@ -3794,177 +3877,183 @@
                   <c:v>601212</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>600929</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>600184</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>601611</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>600480</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>600025</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>603309</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>601628</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600438</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>300108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2697</c:v>
+                  <c:v>600621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300473</c:v>
+                  <c:v>2697</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>300473</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2102</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>601158</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>600203</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>2537</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>600455</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>300482</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>603958</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>2252</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>600456</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>510300</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>600513</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
+                  <c:v>2512</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2344</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>600319</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>159915</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>600218</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>600839</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>2153</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>300304</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>2537</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>2224</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>2291</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>600438</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>600048</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>718</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>807</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>600621</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>600153</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>540</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>300428</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>806</c:v>
+                <c:pt idx="48">
+                  <c:v>2783</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>603811</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>510050</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>600177</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>2783</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>2613</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>338</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>902</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>603505</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>2820</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>300325</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>601336</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>603800</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>2803</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>761</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>300299</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>961</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>603015</c:v>
                 </c:pt>
               </c:strCache>
@@ -3972,18 +4061,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>透析!$F$2:$F$65</c:f>
+              <c:f>透析!$F$2:$F$67</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_ ;[Red]\-#,##0.00\ </c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.550000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>51.380000000000017</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>24.36</c:v>
@@ -3992,31 +4081,31 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>27.110000000000007</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.35</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4.8599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.11</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>5.01</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>5.91</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>5.37</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -4028,58 +4117,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1.27</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.08</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.52</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.62</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.38</c:v>
+                  <c:v>2.62</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92999999999999994</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.92999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -4088,22 +4177,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.8000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>9.8299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.7300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.88</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
@@ -4112,49 +4201,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>3.88</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.8000000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>3.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>3.52</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>8.74</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.87</c:v>
-                </c:pt>
                 <c:pt idx="57">
-                  <c:v>14.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>8.44</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>14.28</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
@@ -4163,6 +4252,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>5.94</c:v>
                 </c:pt>
               </c:numCache>
@@ -4178,11 +4273,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="124750920"/>
-        <c:axId val="124751312"/>
+        <c:axId val="284825176"/>
+        <c:axId val="284827608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124750920"/>
+        <c:axId val="284825176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4192,7 +4287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124751312"/>
+        <c:crossAx val="284827608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4200,7 +4295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124751312"/>
+        <c:axId val="284827608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4211,7 +4306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124750920"/>
+        <c:crossAx val="284825176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4280,19 +4375,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="LI Guoqiang" refreshedDate="43168.338939351852" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="820">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="LI Guoqiang" refreshedDate="43192.427312615742" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="863">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R1048576" sheet="数据"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="成交日期" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20160311" maxValue="20180308"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20160311" maxValue="20180330"/>
     </cacheField>
     <cacheField name="业务名称" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="证券代码" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="952100" count="70">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="952100" count="73">
         <m/>
         <n v="799999"/>
         <n v="510300"/>
@@ -4362,6 +4457,9 @@
         <n v="603505"/>
         <n v="338"/>
         <n v="600621"/>
+        <n v="730929"/>
+        <n v="600929"/>
+        <n v="2512"/>
         <n v="780212" u="1"/>
       </sharedItems>
     </cacheField>
@@ -4420,7 +4518,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="820">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="863">
   <r>
     <n v="20160311"/>
     <s v="银行转证券"/>
@@ -20679,6 +20777,826 @@
     <n v="0"/>
     <n v="0"/>
     <s v="LF009740"/>
+    <n v="197574848"/>
+  </r>
+  <r>
+    <n v="20180309"/>
+    <s v="基金赎回拨入"/>
+    <x v="4"/>
+    <s v="现金管家"/>
+    <n v="100"/>
+    <n v="27024"/>
+    <n v="25242"/>
+    <n v="27024.35"/>
+    <n v="27024.35"/>
+    <n v="81267.399999999994"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <n v="980103988319"/>
+  </r>
+  <r>
+    <n v="20180309"/>
+    <s v="证券买入"/>
+    <x v="20"/>
+    <s v="通威股份"/>
+    <n v="10.4"/>
+    <n v="2500"/>
+    <n v="2500"/>
+    <n v="26000"/>
+    <n v="-26005.71"/>
+    <n v="55261.69"/>
+    <n v="3.43"/>
+    <n v="1.77"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124003488"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180309"/>
+    <s v="证券买入"/>
+    <x v="68"/>
+    <s v="华鑫股份"/>
+    <n v="12.5"/>
+    <n v="2100"/>
+    <n v="4200"/>
+    <n v="26250"/>
+    <n v="-26255.78"/>
+    <n v="29005.91"/>
+    <n v="3.44"/>
+    <n v="1.81"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124003931"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180309"/>
+    <s v="证券买入"/>
+    <x v="44"/>
+    <s v="海联金汇"/>
+    <n v="11.2"/>
+    <n v="2500"/>
+    <n v="2500"/>
+    <n v="28000"/>
+    <n v="-28005.599999999999"/>
+    <n v="1000.31"/>
+    <n v="3.14"/>
+    <n v="2.46"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="LF000141"/>
+    <n v="197574848"/>
+  </r>
+  <r>
+    <n v="20180312"/>
+    <s v="基金申购拨出"/>
+    <x v="4"/>
+    <s v="现金管家"/>
+    <n v="100"/>
+    <n v="84612"/>
+    <n v="109855"/>
+    <n v="84612.33"/>
+    <n v="-84612.33"/>
+    <n v="-83612.02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <n v="980103988319"/>
+  </r>
+  <r>
+    <n v="20180312"/>
+    <s v="证券卖出"/>
+    <x v="68"/>
+    <s v="华鑫股份"/>
+    <n v="13.2"/>
+    <n v="4200"/>
+    <n v="0"/>
+    <n v="55440"/>
+    <n v="55372.36"/>
+    <n v="-28239.66"/>
+    <n v="7.27"/>
+    <n v="3.82"/>
+    <n v="55.44"/>
+    <n v="1.1100000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124000108"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180312"/>
+    <s v="证券卖出"/>
+    <x v="44"/>
+    <s v="海联金汇"/>
+    <n v="11.71"/>
+    <n v="2500"/>
+    <n v="0"/>
+    <n v="29275"/>
+    <n v="29239.86"/>
+    <n v="1000.2"/>
+    <n v="3.27"/>
+    <n v="2.59"/>
+    <n v="29.28"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="LF000283"/>
+    <n v="197574848"/>
+  </r>
+  <r>
+    <n v="20180313"/>
+    <s v="基金赎回拨入"/>
+    <x v="4"/>
+    <s v="现金管家"/>
+    <n v="100"/>
+    <n v="58644"/>
+    <n v="51210"/>
+    <n v="58644.800000000003"/>
+    <n v="58644.800000000003"/>
+    <n v="59645"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <n v="980103988319"/>
+  </r>
+  <r>
+    <n v="20180313"/>
+    <s v="证券买入"/>
+    <x v="20"/>
+    <s v="通威股份"/>
+    <n v="10.47"/>
+    <n v="5600"/>
+    <n v="8100"/>
+    <n v="58632"/>
+    <n v="-58644.9"/>
+    <n v="1000.1"/>
+    <n v="7.71"/>
+    <n v="4.0199999999999996"/>
+    <n v="0"/>
+    <n v="1.17"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124002650"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180315"/>
+    <s v="基金赎回拨入"/>
+    <x v="4"/>
+    <s v="现金管家"/>
+    <n v="100"/>
+    <n v="50125"/>
+    <n v="1085"/>
+    <n v="50125.04"/>
+    <n v="50125.04"/>
+    <n v="51125.14"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <n v="980103988319"/>
+  </r>
+  <r>
+    <n v="20180315"/>
+    <s v="配售中签"/>
+    <x v="69"/>
+    <s v="湖盐申购"/>
+    <n v="3.71"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="3710"/>
+    <n v="0"/>
+    <n v="51125.14"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124001455"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180315"/>
+    <s v="证券买入"/>
+    <x v="20"/>
+    <s v="通威股份"/>
+    <n v="10.17"/>
+    <n v="5100"/>
+    <n v="13200"/>
+    <n v="51867"/>
+    <n v="-51878.41"/>
+    <n v="-753.27"/>
+    <n v="6.81"/>
+    <n v="3.56"/>
+    <n v="0"/>
+    <n v="1.04"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124002357"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180315"/>
+    <s v="证券卖出"/>
+    <x v="20"/>
+    <s v="通威股份"/>
+    <n v="10.19"/>
+    <n v="5100"/>
+    <n v="8100"/>
+    <n v="51969"/>
+    <n v="51905.599999999999"/>
+    <n v="51152.33"/>
+    <n v="6.82"/>
+    <n v="3.57"/>
+    <n v="51.97"/>
+    <n v="1.04"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124002622"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180315"/>
+    <s v="证券买入"/>
+    <x v="17"/>
+    <s v="三安光电"/>
+    <n v="26.39"/>
+    <n v="1900"/>
+    <n v="1900"/>
+    <n v="50141"/>
+    <n v="-50152.03"/>
+    <n v="1000.3"/>
+    <n v="6.59"/>
+    <n v="3.44"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124002734"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180316"/>
+    <s v="银行转证券"/>
+    <x v="0"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5696"/>
+    <n v="6696.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="20180316"/>
+    <s v="证券转银行"/>
+    <x v="0"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="-5696"/>
+    <n v="1000.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="20180316"/>
+    <s v="基金申购拨出"/>
+    <x v="4"/>
+    <s v="现金管家"/>
+    <n v="100"/>
+    <n v="77676"/>
+    <n v="78762"/>
+    <n v="77676.78"/>
+    <n v="-77676.78"/>
+    <n v="-76676.479999999996"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <n v="980103988319"/>
+  </r>
+  <r>
+    <n v="20180316"/>
+    <s v="证券卖出"/>
+    <x v="20"/>
+    <s v="通威股份"/>
+    <n v="10.06"/>
+    <n v="8100"/>
+    <n v="0"/>
+    <n v="81486"/>
+    <n v="81386.58"/>
+    <n v="4710.1000000000004"/>
+    <n v="10.71"/>
+    <n v="5.59"/>
+    <n v="81.489999999999995"/>
+    <n v="1.63"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124016694"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180316"/>
+    <s v="配售缴款"/>
+    <x v="69"/>
+    <s v="湖盐申购"/>
+    <n v="3.71"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="3710"/>
+    <n v="-3710"/>
+    <n v="1000.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180320"/>
+    <s v="基金赎回拨入"/>
+    <x v="4"/>
+    <s v="现金管家"/>
+    <n v="100"/>
+    <n v="39451"/>
+    <n v="39310"/>
+    <n v="39451.89"/>
+    <n v="39451.89"/>
+    <n v="40451.99"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <n v="980103988319"/>
+  </r>
+  <r>
+    <n v="20180320"/>
+    <s v="证券买入"/>
+    <x v="27"/>
+    <s v="西安饮食"/>
+    <n v="5.19"/>
+    <n v="7600"/>
+    <n v="7600"/>
+    <n v="39444"/>
+    <n v="-39451.89"/>
+    <n v="1000.1"/>
+    <n v="4.3899999999999997"/>
+    <n v="3.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="LF010404"/>
+    <n v="197574848"/>
+  </r>
+  <r>
+    <n v="20180321"/>
+    <s v="利息归本"/>
+    <x v="0"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5.07"/>
+    <n v="1005.17"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="20180321"/>
+    <s v="证券卖出"/>
+    <x v="27"/>
+    <s v="西安饮食"/>
+    <n v="5.24"/>
+    <n v="7600"/>
+    <n v="0"/>
+    <n v="39824"/>
+    <n v="39776.22"/>
+    <n v="40781.39"/>
+    <n v="4.42"/>
+    <n v="3.54"/>
+    <n v="39.82"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="LF005837"/>
+    <n v="197574848"/>
+  </r>
+  <r>
+    <n v="20180321"/>
+    <s v="证券买入"/>
+    <x v="8"/>
+    <s v="银河生物"/>
+    <n v="7.59"/>
+    <n v="5000"/>
+    <n v="5000"/>
+    <n v="37950"/>
+    <n v="-37957.589999999997"/>
+    <n v="2823.8"/>
+    <n v="4.1900000000000004"/>
+    <n v="3.4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="LF014595"/>
+    <n v="197574848"/>
+  </r>
+  <r>
+    <n v="20180322"/>
+    <s v="基金赎回拨入"/>
+    <x v="4"/>
+    <s v="现金管家"/>
+    <n v="100"/>
+    <n v="39310"/>
+    <n v="0"/>
+    <n v="39310.239999999998"/>
+    <n v="39310.239999999998"/>
+    <n v="42134.04"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <n v="980103988319"/>
+  </r>
+  <r>
+    <n v="20180322"/>
+    <s v="证券买入"/>
+    <x v="17"/>
+    <s v="三安光电"/>
+    <n v="25.8"/>
+    <n v="1600"/>
+    <n v="3500"/>
+    <n v="41280"/>
+    <n v="-41289.089999999997"/>
+    <n v="844.95"/>
+    <n v="5.42"/>
+    <n v="2.84"/>
+    <n v="0"/>
+    <n v="0.83"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124000624"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180323"/>
+    <s v="基金赎回拨入"/>
+    <x v="4"/>
+    <s v="现金管家"/>
+    <n v="100"/>
+    <n v="155"/>
+    <n v="7"/>
+    <n v="155.05000000000001"/>
+    <n v="155.05000000000001"/>
+    <n v="1000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <n v="980103988319"/>
+  </r>
+  <r>
+    <n v="20180323"/>
+    <s v="新股入帐"/>
+    <x v="70"/>
+    <s v="湖南盐业"/>
+    <n v="0"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124001455"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180327"/>
+    <s v="基金申购拨出"/>
+    <x v="4"/>
+    <s v="现金管家"/>
+    <n v="100"/>
+    <n v="2454"/>
+    <n v="2462"/>
+    <n v="2454.7600000000002"/>
+    <n v="-2454.7600000000002"/>
+    <n v="-1454.76"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <n v="980103988319"/>
+  </r>
+  <r>
+    <n v="20180327"/>
+    <s v="证券买入"/>
+    <x v="65"/>
+    <s v="新华保险"/>
+    <n v="45.8"/>
+    <n v="800"/>
+    <n v="900"/>
+    <n v="36640"/>
+    <n v="-36648.06"/>
+    <n v="-38102.82"/>
+    <n v="4.82"/>
+    <n v="2.5099999999999998"/>
+    <n v="0"/>
+    <n v="0.73"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124002707"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180327"/>
+    <s v="证券卖出"/>
+    <x v="8"/>
+    <s v="银河生物"/>
+    <n v="7.83"/>
+    <n v="5000"/>
+    <n v="0"/>
+    <n v="39150"/>
+    <n v="39103.019999999997"/>
+    <n v="1000.2"/>
+    <n v="4.3600000000000003"/>
+    <n v="3.47"/>
+    <n v="39.15"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="LF006006"/>
+    <n v="197574848"/>
+  </r>
+  <r>
+    <n v="20180329"/>
+    <s v="基金赎回拨入"/>
+    <x v="4"/>
+    <s v="现金管家"/>
+    <n v="100"/>
+    <n v="1972"/>
+    <n v="489"/>
+    <n v="1972.96"/>
+    <n v="1972.96"/>
+    <n v="2973.16"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <n v="980103988319"/>
+  </r>
+  <r>
+    <n v="20180329"/>
+    <s v="证券卖出"/>
+    <x v="65"/>
+    <s v="新华保险"/>
+    <n v="46.67"/>
+    <n v="900"/>
+    <n v="0"/>
+    <n v="42003"/>
+    <n v="41951.76"/>
+    <n v="44924.92"/>
+    <n v="5.51"/>
+    <n v="2.89"/>
+    <n v="42"/>
+    <n v="0.84"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124005457"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180329"/>
+    <s v="证券买入"/>
+    <x v="66"/>
+    <s v="金石资源"/>
+    <n v="21.16"/>
+    <n v="1600"/>
+    <n v="1700"/>
+    <n v="33856"/>
+    <n v="-33863.449999999997"/>
+    <n v="11061.47"/>
+    <n v="4.4400000000000004"/>
+    <n v="2.33"/>
+    <n v="0"/>
+    <n v="0.68"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124005904"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180329"/>
+    <s v="证券卖出"/>
+    <x v="67"/>
+    <s v="潍柴动力"/>
+    <n v="8.35"/>
+    <n v="2900"/>
+    <n v="0"/>
+    <n v="24215"/>
+    <n v="24185.78"/>
+    <n v="35247.25"/>
+    <n v="2.86"/>
+    <n v="2.14"/>
+    <n v="24.22"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="LF011397"/>
+    <n v="197574848"/>
+  </r>
+  <r>
+    <n v="20180329"/>
+    <s v="证券买入"/>
+    <x v="49"/>
+    <s v="凯龙股份"/>
+    <n v="17.12"/>
+    <n v="2000"/>
+    <n v="2100"/>
+    <n v="34240"/>
+    <n v="-34246.85"/>
+    <n v="1000.4"/>
+    <n v="3.82"/>
+    <n v="3.03"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="LF013983"/>
+    <n v="197574848"/>
+  </r>
+  <r>
+    <n v="20180330"/>
+    <s v="基金赎回拨入"/>
+    <x v="4"/>
+    <s v="现金管家"/>
+    <n v="100"/>
+    <n v="489"/>
+    <n v="0"/>
+    <n v="489.27"/>
+    <n v="489.27"/>
+    <n v="1489.67"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <n v="980103988319"/>
+  </r>
+  <r>
+    <n v="20180330"/>
+    <s v="证券卖出"/>
+    <x v="66"/>
+    <s v="金石资源"/>
+    <n v="21.4"/>
+    <n v="1700"/>
+    <n v="0"/>
+    <n v="36380"/>
+    <n v="36335.61"/>
+    <n v="37825.279999999999"/>
+    <n v="4.78"/>
+    <n v="2.5"/>
+    <n v="36.380000000000003"/>
+    <n v="0.73"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1124001405"/>
+    <s v="A450993753"/>
+  </r>
+  <r>
+    <n v="20180330"/>
+    <s v="证券卖出"/>
+    <x v="49"/>
+    <s v="凯龙股份"/>
+    <n v="17.45"/>
+    <n v="2100"/>
+    <n v="0"/>
+    <n v="36645"/>
+    <n v="36601.019999999997"/>
+    <n v="74426.3"/>
+    <n v="4.09"/>
+    <n v="3.24"/>
+    <n v="36.65"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="LF006077"/>
+    <n v="197574848"/>
+  </r>
+  <r>
+    <n v="20180330"/>
+    <s v="证券买入"/>
+    <x v="38"/>
+    <s v="富春股份"/>
+    <n v="8.25"/>
+    <n v="4500"/>
+    <n v="4500"/>
+    <n v="37125"/>
+    <n v="-37132.43"/>
+    <n v="37293.870000000003"/>
+    <n v="4.1399999999999997"/>
+    <n v="3.29"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="LF011819"/>
+    <n v="197574848"/>
+  </r>
+  <r>
+    <n v="20180330"/>
+    <s v="证券买入"/>
+    <x v="71"/>
+    <s v="达华智能"/>
+    <n v="11.85"/>
+    <n v="3100"/>
+    <n v="3100"/>
+    <n v="36735"/>
+    <n v="-36742.35"/>
+    <n v="551.52"/>
+    <n v="4.0999999999999996"/>
+    <n v="3.25"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="LF011896"/>
     <n v="197574848"/>
   </r>
   <r>
@@ -20704,13 +21622,13 @@
   <r>
     <m/>
     <s v="证券卖出"/>
-    <x v="65"/>
-    <s v="新华保险"/>
-    <n v="53.8"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="5380"/>
-    <n v="5380"/>
+    <x v="71"/>
+    <s v="达华智能"/>
+    <n v="11.85"/>
+    <n v="3100"/>
+    <n v="3100"/>
+    <n v="36735"/>
+    <n v="36735"/>
     <m/>
     <m/>
     <m/>
@@ -20724,13 +21642,13 @@
   <r>
     <m/>
     <s v="证券卖出"/>
-    <x v="67"/>
-    <s v="潍柴动力"/>
+    <x v="38"/>
+    <s v="富春股份"/>
     <n v="8.25"/>
-    <n v="2900"/>
-    <n v="2900"/>
-    <n v="23925"/>
-    <n v="23925"/>
+    <n v="4500"/>
+    <n v="4500"/>
+    <n v="37125"/>
+    <n v="37125"/>
     <m/>
     <m/>
     <m/>
@@ -20744,13 +21662,13 @@
   <r>
     <m/>
     <s v="证券卖出"/>
-    <x v="49"/>
-    <s v="凯龙股份"/>
-    <n v="17.940000000000001"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="1794.0000000000002"/>
-    <n v="1794.0000000000002"/>
+    <x v="17"/>
+    <s v="三安光电"/>
+    <n v="23.33"/>
+    <n v="3500"/>
+    <n v="3500"/>
+    <n v="81655"/>
+    <n v="81655"/>
     <m/>
     <m/>
     <m/>
@@ -20764,33 +21682,13 @@
   <r>
     <m/>
     <s v="证券卖出"/>
-    <x v="66"/>
-    <s v="金石资源"/>
-    <n v="23.69"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="2369"/>
-    <n v="2369"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="证券卖出"/>
-    <x v="68"/>
-    <s v="华鑫股份"/>
-    <n v="12.23"/>
-    <n v="2100"/>
-    <n v="2100"/>
-    <n v="25683"/>
-    <n v="25683"/>
+    <x v="70"/>
+    <s v="湖南盐业"/>
+    <n v="7.82"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <n v="7820"/>
+    <n v="7820"/>
     <m/>
     <m/>
     <m/>
@@ -20821,17 +21719,77 @@
     <m/>
     <m/>
   </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A1:F65" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A1:F67" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
     <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="71">
+      <items count="74">
         <item x="3"/>
         <item x="2"/>
         <item h="1" x="1"/>
@@ -20865,7 +21823,7 @@
         <item x="29"/>
         <item h="1" x="30"/>
         <item x="31"/>
-        <item m="1" x="69"/>
+        <item m="1" x="72"/>
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
@@ -20902,6 +21860,9 @@
         <item x="66"/>
         <item x="67"/>
         <item x="68"/>
+        <item h="1" x="69"/>
+        <item x="70"/>
+        <item x="71"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -20943,21 +21904,24 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="64">
+  <rowItems count="66">
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="20"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="18"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
       <x v="34"/>
+    </i>
+    <i>
+      <x v="71"/>
     </i>
     <i>
       <x v="16"/>
@@ -20978,19 +21942,19 @@
       <x v="57"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="69"/>
     </i>
     <i>
       <x v="35"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="28"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="36"/>
     </i>
     <i>
       <x v="62"/>
@@ -21003,6 +21967,9 @@
     </i>
     <i>
       <x v="52"/>
+    </i>
+    <i>
+      <x v="46"/>
     </i>
     <i>
       <x v="60"/>
@@ -21026,6 +21993,9 @@
       <x v="14"/>
     </i>
     <i>
+      <x v="72"/>
+    </i>
+    <i>
       <x v="54"/>
     </i>
     <i>
@@ -21047,13 +22017,13 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="46"/>
-    </i>
-    <i>
       <x v="44"/>
     </i>
     <i>
       <x v="45"/>
+    </i>
+    <i>
+      <x v="21"/>
     </i>
     <i>
       <x v="15"/>
@@ -21062,13 +22032,13 @@
       <x v="48"/>
     </i>
     <i>
+      <x v="10"/>
+    </i>
+    <i>
       <x v="63"/>
     </i>
     <i>
       <x v="8"/>
-    </i>
-    <i>
-      <x v="69"/>
     </i>
     <i>
       <x v="19"/>
@@ -21080,7 +22050,7 @@
       <x v="55"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="53"/>
     </i>
     <i>
       <x v="59"/>
@@ -21090,9 +22060,6 @@
     </i>
     <i>
       <x v="41"/>
-    </i>
-    <i>
-      <x v="53"/>
     </i>
     <i>
       <x v="49"/>
@@ -21568,7 +22535,7 @@
   <dimension ref="A1:AU1647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -21614,7 +22581,7 @@
   <sheetData>
     <row r="1" spans="1:47" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>74</v>
@@ -21699,7 +22666,7 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A2,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A2,数据!B2:B65729,"配售缴款"))</f>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A2,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A2,数据!B2:B65770,"配售缴款"))</f>
         <v>57494.94</v>
       </c>
       <c r="J2" s="19">
@@ -21746,32 +22713,32 @@
     </row>
     <row r="3" spans="1:47" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
-        <v>600703</v>
+        <v>2828</v>
       </c>
       <c r="B3" s="3">
-        <v>20748.400000000038</v>
+        <v>12636.330000000002</v>
       </c>
       <c r="C3" s="3">
-        <v>1250.43</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="D3" s="3">
-        <v>333.31999999999994</v>
+        <v>3.35</v>
       </c>
       <c r="E3" s="3">
-        <v>170.29999999999998</v>
+        <v>1.65</v>
       </c>
       <c r="F3" s="3">
-        <v>49.550000000000004</v>
+        <v>0</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A3,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A3,数据!B2:B65729,"配售缴款"))</f>
-        <v>1228367.0999999999</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A3,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A3,数据!B2:B65770,"配售缴款"))</f>
+        <v>6010</v>
       </c>
       <c r="J3" s="19">
         <f t="shared" ref="J3:J45" si="0">B3/I3</f>
-        <v>1.6891041774075553E-2</v>
+        <v>2.1025507487520803</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -21813,32 +22780,32 @@
     </row>
     <row r="4" spans="1:47" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
-        <v>2828</v>
+        <v>600703</v>
       </c>
       <c r="B4" s="3">
-        <v>12636.330000000002</v>
+        <v>10962.279999999977</v>
       </c>
       <c r="C4" s="3">
-        <v>18.670000000000002</v>
+        <v>1250.43</v>
       </c>
       <c r="D4" s="3">
-        <v>3.35</v>
+        <v>345.33</v>
       </c>
       <c r="E4" s="3">
-        <v>1.65</v>
+        <v>176.58</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>51.380000000000017</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A4,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A4,数据!B2:B65729,"配售缴款"))</f>
-        <v>6010</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A4,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A4,数据!B2:B65770,"配售缴款"))</f>
+        <v>1319808.22</v>
       </c>
       <c r="J4" s="19">
         <f t="shared" si="0"/>
-        <v>2.1025507487520803</v>
+        <v>8.305964331696598E-3</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
@@ -21900,7 +22867,7 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A5,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A5,数据!B2:B65729,"配售缴款"))</f>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A5,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A5,数据!B2:B65770,"配售缴款"))</f>
         <v>602909.12</v>
       </c>
       <c r="J5" s="19">
@@ -21967,7 +22934,7 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A6,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A6,数据!B2:B65729,"配售缴款"))</f>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A6,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A6,数据!B2:B65770,"配售缴款"))</f>
         <v>1780</v>
       </c>
       <c r="J6" s="19">
@@ -22014,32 +22981,32 @@
     </row>
     <row r="7" spans="1:47" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
-        <v>600184</v>
+        <v>600929</v>
       </c>
       <c r="B7" s="3">
-        <v>7334.0300000000207</v>
+        <v>7820</v>
       </c>
       <c r="C7" s="3">
-        <v>681.8</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>177.96</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>93.100000000000023</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>27.110000000000007</v>
+        <v>0</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A7,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A7,数据!B2:B65729,"配售缴款"))</f>
-        <v>673619.15999999992</v>
-      </c>
-      <c r="J7" s="19">
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A7,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A7,数据!B2:B65770,"配售缴款"))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="19" t="e">
         <f t="shared" si="0"/>
-        <v>1.0887502071645381E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -22081,32 +23048,32 @@
     </row>
     <row r="8" spans="1:47" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
-        <v>601611</v>
+        <v>600184</v>
       </c>
       <c r="B8" s="3">
-        <v>4830.8500000000167</v>
+        <v>7334.0300000000207</v>
       </c>
       <c r="C8" s="3">
-        <v>186.04000000000002</v>
+        <v>681.8</v>
       </c>
       <c r="D8" s="3">
-        <v>48.540000000000006</v>
+        <v>177.96</v>
       </c>
       <c r="E8" s="3">
-        <v>25.219999999999995</v>
+        <v>93.100000000000023</v>
       </c>
       <c r="F8" s="3">
-        <v>7.35</v>
+        <v>27.110000000000007</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A8,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A8,数据!B2:B65729,"配售缴款"))</f>
-        <v>180975.00000000003</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A8,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A8,数据!B2:B65770,"配售缴款"))</f>
+        <v>673619.15999999992</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="0"/>
-        <v>2.6693465948335493E-2</v>
+        <v>1.0887502071645381E-2</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -22148,32 +23115,32 @@
     </row>
     <row r="9" spans="1:47" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
-        <v>600480</v>
+        <v>601611</v>
       </c>
       <c r="B9" s="3">
-        <v>4682.9100000000035</v>
+        <v>4830.8500000000167</v>
       </c>
       <c r="C9" s="3">
-        <v>123.72</v>
+        <v>186.04000000000002</v>
       </c>
       <c r="D9" s="3">
-        <v>31.84</v>
+        <v>48.540000000000006</v>
       </c>
       <c r="E9" s="3">
-        <v>16.670000000000002</v>
+        <v>25.219999999999995</v>
       </c>
       <c r="F9" s="3">
-        <v>4.8599999999999994</v>
+        <v>7.35</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A9,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A9,数据!B2:B65729,"配售缴款"))</f>
-        <v>118886.15</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A9,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A9,数据!B2:B65770,"配售缴款"))</f>
+        <v>180975.00000000003</v>
       </c>
       <c r="J9" s="19">
         <f t="shared" si="0"/>
-        <v>3.9389870056352264E-2</v>
+        <v>2.6693465948335493E-2</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -22215,122 +23182,122 @@
     </row>
     <row r="10" spans="1:47" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
-        <v>600025</v>
+        <v>600480</v>
       </c>
       <c r="B10" s="3">
-        <v>3379.33</v>
+        <v>4682.9100000000035</v>
       </c>
       <c r="C10" s="3">
-        <v>5.56</v>
+        <v>123.72</v>
       </c>
       <c r="D10" s="3">
-        <v>4.62</v>
+        <v>31.84</v>
       </c>
       <c r="E10" s="3">
-        <v>0.38</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="F10" s="3">
-        <v>0.11</v>
+        <v>4.8599999999999994</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A10,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A10,数据!B2:B65729,"配售缴款"))</f>
-        <v>2170</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A10,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A10,数据!B2:B65770,"配售缴款"))</f>
+        <v>118886.15</v>
       </c>
       <c r="J10" s="19">
         <f t="shared" si="0"/>
-        <v>1.5572949308755759</v>
+        <v>3.9389870056352264E-2</v>
       </c>
     </row>
     <row r="11" spans="1:47" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
-        <v>603309</v>
+        <v>600025</v>
       </c>
       <c r="B11" s="3">
-        <v>2856.8100000000049</v>
+        <v>3379.33</v>
       </c>
       <c r="C11" s="3">
-        <v>126.99000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="D11" s="3">
-        <v>32.950000000000003</v>
+        <v>4.62</v>
       </c>
       <c r="E11" s="3">
-        <v>17.240000000000002</v>
+        <v>0.38</v>
       </c>
       <c r="F11" s="3">
-        <v>5.01</v>
+        <v>0.11</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A11,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A11,数据!B2:B65729,"配售缴款"))</f>
-        <v>123969.26999999999</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A11,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A11,数据!B2:B65770,"配售缴款"))</f>
+        <v>2170</v>
       </c>
       <c r="J11" s="19">
         <f t="shared" si="0"/>
-        <v>2.3044501270355188E-2</v>
+        <v>1.5572949308755759</v>
       </c>
     </row>
     <row r="12" spans="1:47" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
-        <v>601628</v>
+        <v>603309</v>
       </c>
       <c r="B12" s="3">
-        <v>2596.1899999999878</v>
+        <v>2856.8100000000049</v>
       </c>
       <c r="C12" s="3">
-        <v>148.9</v>
+        <v>126.99000000000001</v>
       </c>
       <c r="D12" s="3">
-        <v>38.71</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="E12" s="3">
-        <v>20.29</v>
+        <v>17.240000000000002</v>
       </c>
       <c r="F12" s="3">
-        <v>5.91</v>
+        <v>5.01</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A12,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A12,数据!B2:B65729,"配售缴款"))</f>
-        <v>146126.15</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A12,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A12,数据!B2:B65770,"配售缴款"))</f>
+        <v>123969.26999999999</v>
       </c>
       <c r="J12" s="19">
         <f t="shared" si="0"/>
-        <v>1.7766772066464407E-2</v>
+        <v>2.3044501270355188E-2</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
-        <v>600438</v>
+        <v>601628</v>
       </c>
       <c r="B13" s="3">
-        <v>2083.1700000000055</v>
+        <v>2596.1899999999878</v>
       </c>
       <c r="C13" s="3">
-        <v>112.01</v>
+        <v>148.9</v>
       </c>
       <c r="D13" s="3">
-        <v>29.16</v>
+        <v>38.71</v>
       </c>
       <c r="E13" s="3">
-        <v>15.22</v>
+        <v>20.29</v>
       </c>
       <c r="F13" s="3">
-        <v>4.4399999999999995</v>
+        <v>5.91</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A13,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A13,数据!B2:B65729,"配售缴款"))</f>
-        <v>109779.17</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A13,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A13,数据!B2:B65770,"配售缴款"))</f>
+        <v>146126.15</v>
       </c>
       <c r="J13" s="19">
         <f t="shared" si="0"/>
-        <v>1.8976004282051009E-2</v>
+        <v>1.7766772066464407E-2</v>
       </c>
     </row>
     <row r="14" spans="1:47" ht="13.5" x14ac:dyDescent="0.15">
@@ -22355,7 +23322,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A14,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A14,数据!B2:B65729,"配售缴款"))</f>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A14,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A14,数据!B2:B65770,"配售缴款"))</f>
         <v>167341.47</v>
       </c>
       <c r="J14" s="19">
@@ -22365,49 +23332,49 @@
     </row>
     <row r="15" spans="1:47" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
-        <v>2697</v>
+        <v>600621</v>
       </c>
       <c r="B15" s="3">
-        <v>1140.630000000001</v>
+        <v>1542.1699999999983</v>
       </c>
       <c r="C15" s="3">
-        <v>61.78</v>
+        <v>134.85</v>
       </c>
       <c r="D15" s="3">
-        <v>13.73</v>
+        <v>35.18</v>
       </c>
       <c r="E15" s="3">
-        <v>10.86</v>
+        <v>18.429999999999996</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>5.37</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A15,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A15,数据!B2:B65729,"配售缴款"))</f>
-        <v>60569.19</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A15,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A15,数据!B2:B65770,"配售缴款"))</f>
+        <v>133133.29999999999</v>
       </c>
       <c r="J15" s="19">
         <f t="shared" si="0"/>
-        <v>1.8831851639422633E-2</v>
+        <v>1.1583653375977297E-2</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
-        <v>300473</v>
+        <v>2697</v>
       </c>
       <c r="B16" s="3">
-        <v>1084.380000000001</v>
+        <v>1140.630000000001</v>
       </c>
       <c r="C16" s="3">
-        <v>32.75</v>
+        <v>61.78</v>
       </c>
       <c r="D16" s="3">
-        <v>7.16</v>
+        <v>13.73</v>
       </c>
       <c r="E16" s="3">
-        <v>5.71</v>
+        <v>10.86</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -22415,12 +23382,12 @@
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A16,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A16,数据!B2:B65729,"配售缴款"))</f>
-        <v>31626.32</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A16,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A16,数据!B2:B65770,"配售缴款"))</f>
+        <v>60569.19</v>
       </c>
       <c r="J16" s="19">
         <f t="shared" si="0"/>
-        <v>3.4287264531567413E-2</v>
+        <v>1.8831851639422633E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
@@ -22428,16 +23395,16 @@
         <v>721</v>
       </c>
       <c r="B17" s="3">
-        <v>777.52999999999884</v>
+        <v>1101.8600000000006</v>
       </c>
       <c r="C17" s="3">
-        <v>50.46</v>
+        <v>90.28</v>
       </c>
       <c r="D17" s="3">
-        <v>11.129999999999999</v>
+        <v>19.939999999999998</v>
       </c>
       <c r="E17" s="3">
-        <v>8.8800000000000008</v>
+        <v>15.920000000000002</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -22445,29 +23412,29 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A17,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A17,数据!B2:B65729,"配售缴款"))</f>
-        <v>49617.919999999998</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A17,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A17,数据!B2:B65770,"配售缴款"))</f>
+        <v>89069.81</v>
       </c>
       <c r="J17" s="19">
         <f t="shared" si="0"/>
-        <v>1.5670346519966957E-2</v>
+        <v>1.237074604739811E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
-        <v>2102</v>
+        <v>300473</v>
       </c>
       <c r="B18" s="3">
-        <v>571.44999999999709</v>
+        <v>1084.380000000001</v>
       </c>
       <c r="C18" s="3">
-        <v>96.92</v>
+        <v>32.75</v>
       </c>
       <c r="D18" s="3">
-        <v>21.48</v>
+        <v>7.16</v>
       </c>
       <c r="E18" s="3">
-        <v>17.149999999999999</v>
+        <v>5.71</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -22475,149 +23442,149 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A18,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A18,数据!B2:B65729,"配售缴款"))</f>
-        <v>96233.239999999991</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A18,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A18,数据!B2:B65770,"配售缴款"))</f>
+        <v>31626.32</v>
       </c>
       <c r="J18" s="19">
         <f t="shared" si="0"/>
-        <v>5.9381768711102021E-3</v>
+        <v>3.4287264531567413E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
-        <v>601158</v>
+        <v>2102</v>
       </c>
       <c r="B19" s="3">
-        <v>394.2400000000016</v>
+        <v>571.44999999999709</v>
       </c>
       <c r="C19" s="3">
-        <v>31.84</v>
+        <v>96.92</v>
       </c>
       <c r="D19" s="3">
-        <v>8.3000000000000007</v>
+        <v>21.48</v>
       </c>
       <c r="E19" s="3">
-        <v>4.3499999999999996</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="F19" s="3">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A19,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A19,数据!B2:B65729,"配售缴款"))</f>
-        <v>31406.91</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A19,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A19,数据!B2:B65770,"配售缴款"))</f>
+        <v>96233.239999999991</v>
       </c>
       <c r="J19" s="19">
         <f t="shared" si="0"/>
-        <v>1.2552651629848387E-2</v>
+        <v>5.9381768711102021E-3</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
-        <v>2007</v>
+        <v>601158</v>
       </c>
       <c r="B20" s="3">
-        <v>295.30999999999767</v>
+        <v>394.2400000000016</v>
       </c>
       <c r="C20" s="3">
-        <v>26.97</v>
+        <v>31.84</v>
       </c>
       <c r="D20" s="3">
-        <v>5.9700000000000006</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E20" s="3">
-        <v>4.75</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A20,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A20,数据!B2:B65729,"配售缴款"))</f>
-        <v>26645.33</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A20,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A20,数据!B2:B65770,"配售缴款"))</f>
+        <v>31406.91</v>
       </c>
       <c r="J20" s="19">
         <f t="shared" si="0"/>
-        <v>1.1082992779597688E-2</v>
+        <v>1.2552651629848387E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="12">
-        <v>600203</v>
+        <v>2007</v>
       </c>
       <c r="B21" s="3">
-        <v>239.47000000000116</v>
+        <v>295.30999999999767</v>
       </c>
       <c r="C21" s="3">
-        <v>38.089999999999996</v>
+        <v>26.97</v>
       </c>
       <c r="D21" s="3">
-        <v>15.71</v>
+        <v>5.9700000000000006</v>
       </c>
       <c r="E21" s="3">
-        <v>5.21</v>
+        <v>4.75</v>
       </c>
       <c r="F21" s="3">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A21,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A21,数据!B2:B65729,"配售缴款"))</f>
-        <v>37793.199999999997</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A21,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A21,数据!B2:B65770,"配售缴款"))</f>
+        <v>26645.33</v>
       </c>
       <c r="J21" s="19">
         <f t="shared" si="0"/>
-        <v>6.3363250531842021E-3</v>
+        <v>1.1082992779597688E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
-        <v>600455</v>
+        <v>600203</v>
       </c>
       <c r="B22" s="3">
-        <v>124.88999999999942</v>
+        <v>239.47000000000116</v>
       </c>
       <c r="C22" s="3">
-        <v>29.96</v>
+        <v>38.089999999999996</v>
       </c>
       <c r="D22" s="3">
-        <v>7.84</v>
+        <v>15.71</v>
       </c>
       <c r="E22" s="3">
-        <v>4.1099999999999994</v>
+        <v>5.21</v>
       </c>
       <c r="F22" s="3">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A22,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A22,数据!B2:B65729,"配售缴款"))</f>
-        <v>29798.560000000001</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A22,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A22,数据!B2:B65770,"配售缴款"))</f>
+        <v>37793.199999999997</v>
       </c>
       <c r="J22" s="19">
         <f t="shared" si="0"/>
-        <v>4.1911421223038772E-3</v>
+        <v>6.3363250531842021E-3</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
-        <v>300482</v>
+        <v>2537</v>
       </c>
       <c r="B23" s="3">
-        <v>108.93000000000029</v>
+        <v>235.02000000000407</v>
       </c>
       <c r="C23" s="3">
-        <v>36.5</v>
+        <v>166.48000000000002</v>
       </c>
       <c r="D23" s="3">
-        <v>8.1</v>
+        <v>37.06</v>
       </c>
       <c r="E23" s="3">
-        <v>6.4700000000000006</v>
+        <v>29.439999999999998</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -22625,59 +23592,59 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A23,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A23,数据!B2:B65729,"配售缴款"))</f>
-        <v>36342.269999999997</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A23,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A23,数据!B2:B65770,"配售缴款"))</f>
+        <v>166036.20000000001</v>
       </c>
       <c r="J23" s="19">
         <f t="shared" si="0"/>
-        <v>2.9973361597940991E-3</v>
+        <v>1.4154744567751133E-3</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
-        <v>603958</v>
+        <v>600455</v>
       </c>
       <c r="B24" s="3">
-        <v>103.38000000000102</v>
+        <v>124.88999999999942</v>
       </c>
       <c r="C24" s="3">
-        <v>27.55</v>
+        <v>29.96</v>
       </c>
       <c r="D24" s="3">
-        <v>7.23</v>
+        <v>7.84</v>
       </c>
       <c r="E24" s="3">
-        <v>3.76</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="F24" s="3">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A24,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A24,数据!B2:B65729,"配售缴款"))</f>
-        <v>27410.02</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A24,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A24,数据!B2:B65770,"配售缴款"))</f>
+        <v>29798.560000000001</v>
       </c>
       <c r="J24" s="19">
         <f t="shared" si="0"/>
-        <v>3.7716134464696126E-3</v>
+        <v>4.1911421223038772E-3</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
-        <v>2252</v>
+        <v>300482</v>
       </c>
       <c r="B25" s="3">
-        <v>74.309999999997672</v>
+        <v>108.93000000000029</v>
       </c>
       <c r="C25" s="3">
-        <v>30.51</v>
+        <v>36.5</v>
       </c>
       <c r="D25" s="3">
-        <v>6.77</v>
+        <v>8.1</v>
       </c>
       <c r="E25" s="3">
-        <v>5.41</v>
+        <v>6.4700000000000006</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -22685,59 +23652,59 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A25,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A25,数据!B2:B65729,"配售缴款"))</f>
-        <v>30400.080000000002</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A25,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A25,数据!B2:B65770,"配售缴款"))</f>
+        <v>36342.269999999997</v>
       </c>
       <c r="J25" s="19">
         <f t="shared" si="0"/>
-        <v>2.4444014621013387E-3</v>
+        <v>2.9973361597940991E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A26" s="12">
-        <v>600456</v>
+        <v>603958</v>
       </c>
       <c r="B26" s="3">
-        <v>69.169999999998254</v>
+        <v>103.38000000000102</v>
       </c>
       <c r="C26" s="3">
-        <v>63.1</v>
+        <v>27.55</v>
       </c>
       <c r="D26" s="3">
-        <v>16.549999999999997</v>
+        <v>7.23</v>
       </c>
       <c r="E26" s="3">
-        <v>8.66</v>
+        <v>3.76</v>
       </c>
       <c r="F26" s="3">
-        <v>2.52</v>
+        <v>1.08</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A26,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A26,数据!B2:B65729,"配售缴款"))</f>
-        <v>62957.85</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A26,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A26,数据!B2:B65770,"配售缴款"))</f>
+        <v>27410.02</v>
       </c>
       <c r="J26" s="19">
         <f t="shared" si="0"/>
-        <v>1.0986715715355314E-3</v>
+        <v>3.7716134464696126E-3</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
-        <v>510300</v>
+        <v>2252</v>
       </c>
       <c r="B27" s="3">
-        <v>35.659999999999854</v>
+        <v>74.309999999997672</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>30.51</v>
       </c>
       <c r="D27" s="3">
-        <v>1.28</v>
+        <v>6.77</v>
       </c>
       <c r="E27" s="3">
-        <v>1.06</v>
+        <v>5.41</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -22745,59 +23712,59 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A27,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A27,数据!B2:B65729,"配售缴款"))</f>
-        <v>11701.37</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A27,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A27,数据!B2:B65770,"配售缴款"))</f>
+        <v>30400.080000000002</v>
       </c>
       <c r="J27" s="19">
         <f t="shared" si="0"/>
-        <v>3.0475064030963768E-3</v>
+        <v>2.4444014621013387E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
-        <v>600513</v>
+        <v>600456</v>
       </c>
       <c r="B28" s="3">
-        <v>19.580000000001746</v>
+        <v>69.169999999998254</v>
       </c>
       <c r="C28" s="3">
-        <v>65.59</v>
+        <v>63.1</v>
       </c>
       <c r="D28" s="3">
-        <v>17.21</v>
+        <v>16.549999999999997</v>
       </c>
       <c r="E28" s="3">
-        <v>9</v>
+        <v>8.66</v>
       </c>
       <c r="F28" s="3">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A28,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A28,数据!B2:B65729,"配售缴款"))</f>
-        <v>65488.4</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A28,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A28,数据!B2:B65770,"配售缴款"))</f>
+        <v>62957.85</v>
       </c>
       <c r="J28" s="19">
         <f t="shared" si="0"/>
-        <v>2.9898424759196659E-4</v>
+        <v>1.0986715715355314E-3</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A29" s="12">
-        <v>2344</v>
+        <v>510300</v>
       </c>
       <c r="B29" s="3">
-        <v>-107.19000000000051</v>
+        <v>35.659999999999854</v>
       </c>
       <c r="C29" s="3">
-        <v>9.19</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3">
-        <v>8.3800000000000008</v>
+        <v>1.28</v>
       </c>
       <c r="E29" s="3">
-        <v>1.62</v>
+        <v>1.06</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -22805,59 +23772,59 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A29,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A29,数据!B2:B65729,"配售缴款"))</f>
-        <v>9278</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A29,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A29,数据!B2:B65770,"配售缴款"))</f>
+        <v>11701.37</v>
       </c>
       <c r="J29" s="19">
         <f t="shared" si="0"/>
-        <v>-1.1553136451821568E-2</v>
+        <v>3.0475064030963768E-3</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A30" s="12">
-        <v>600319</v>
+        <v>600513</v>
       </c>
       <c r="B30" s="3">
-        <v>-280.69000000000051</v>
+        <v>19.580000000001746</v>
       </c>
       <c r="C30" s="3">
-        <v>9.31</v>
+        <v>65.59</v>
       </c>
       <c r="D30" s="3">
-        <v>8.7100000000000009</v>
+        <v>17.21</v>
       </c>
       <c r="E30" s="3">
-        <v>1.29</v>
+        <v>9</v>
       </c>
       <c r="F30" s="3">
-        <v>0.38</v>
+        <v>2.62</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A30,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A30,数据!B2:B65729,"配售缴款"))</f>
-        <v>9572.19</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A30,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A30,数据!B2:B65770,"配售缴款"))</f>
+        <v>65488.4</v>
       </c>
       <c r="J30" s="19">
         <f t="shared" si="0"/>
-        <v>-2.9323488146390794E-2</v>
+        <v>2.9898424759196659E-4</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="12">
-        <v>159915</v>
+        <v>2512</v>
       </c>
       <c r="B31" s="3">
-        <v>-333.17000000004191</v>
+        <v>-7.3499999999985448</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <v>77.419999999999987</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E31" s="3">
-        <v>73.450000000000017</v>
+        <v>3.25</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -22865,89 +23832,89 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A31,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A31,数据!B2:B65729,"配售缴款"))</f>
-        <v>754164.54000000015</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A31,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A31,数据!B2:B65770,"配售缴款"))</f>
+        <v>36742.35</v>
       </c>
       <c r="J31" s="19">
         <f t="shared" si="0"/>
-        <v>-4.4177362144346094E-4</v>
+        <v>-2.0004164132121502E-4</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="12">
-        <v>600218</v>
+        <v>2344</v>
       </c>
       <c r="B32" s="3">
-        <v>-558.97999999999956</v>
+        <v>-107.19000000000051</v>
       </c>
       <c r="C32" s="3">
-        <v>8.6300000000000008</v>
+        <v>9.19</v>
       </c>
       <c r="D32" s="3">
-        <v>8.7800000000000011</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="E32" s="3">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="F32" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A32,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A32,数据!B2:B65729,"配售缴款"))</f>
-        <v>9175.18</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A32,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A32,数据!B2:B65770,"配售缴款"))</f>
+        <v>9278</v>
       </c>
       <c r="J32" s="19">
         <f t="shared" si="0"/>
-        <v>-6.092305546049228E-2</v>
+        <v>-1.1553136451821568E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A33" s="12">
-        <v>600839</v>
+        <v>600319</v>
       </c>
       <c r="B33" s="3">
-        <v>-583.05000000000291</v>
+        <v>-280.69000000000051</v>
       </c>
       <c r="C33" s="3">
-        <v>23.12</v>
+        <v>9.31</v>
       </c>
       <c r="D33" s="3">
-        <v>6.79</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="E33" s="3">
-        <v>3.21</v>
+        <v>1.29</v>
       </c>
       <c r="F33" s="3">
-        <v>0.92999999999999994</v>
+        <v>0.38</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A33,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A33,数据!B2:B65729,"配售缴款"))</f>
-        <v>23673.47</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A33,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A33,数据!B2:B65770,"配售缴款"))</f>
+        <v>9572.19</v>
       </c>
       <c r="J33" s="19">
         <f t="shared" si="0"/>
-        <v>-2.4628835569944028E-2</v>
+        <v>-2.9323488146390794E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="12">
-        <v>2153</v>
+        <v>159915</v>
       </c>
       <c r="B34" s="3">
-        <v>-602.36000000000058</v>
+        <v>-333.17000000004191</v>
       </c>
       <c r="C34" s="3">
-        <v>120.64000000000001</v>
+        <v>0</v>
       </c>
       <c r="D34" s="3">
-        <v>27.259999999999994</v>
+        <v>77.419999999999987</v>
       </c>
       <c r="E34" s="3">
-        <v>21.459999999999997</v>
+        <v>73.450000000000017</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -22955,89 +23922,89 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A34,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A34,数据!B2:B65729,"配售缴款"))</f>
-        <v>121108.32</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A34,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A34,数据!B2:B65770,"配售缴款"))</f>
+        <v>754164.54000000015</v>
       </c>
       <c r="J34" s="19">
         <f t="shared" si="0"/>
-        <v>-4.9737293028257728E-3</v>
+        <v>-4.4177362144346094E-4</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A35" s="12">
-        <v>300304</v>
+        <v>600218</v>
       </c>
       <c r="B35" s="3">
-        <v>-869.99999999999636</v>
+        <v>-558.97999999999956</v>
       </c>
       <c r="C35" s="3">
-        <v>96.32</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="D35" s="3">
-        <v>21.520000000000003</v>
+        <v>8.7800000000000011</v>
       </c>
       <c r="E35" s="3">
-        <v>17.16</v>
+        <v>1.22</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A35,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A35,数据!B2:B65729,"配售缴款"))</f>
-        <v>97070.41</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A35,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A35,数据!B2:B65770,"配售缴款"))</f>
+        <v>9175.18</v>
       </c>
       <c r="J35" s="19">
         <f t="shared" si="0"/>
-        <v>-8.9625664504764772E-3</v>
+        <v>-6.092305546049228E-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A36" s="12">
-        <v>2537</v>
+        <v>600839</v>
       </c>
       <c r="B36" s="3">
-        <v>-999.24000000000524</v>
+        <v>-583.05000000000291</v>
       </c>
       <c r="C36" s="3">
-        <v>137.19999999999999</v>
+        <v>23.12</v>
       </c>
       <c r="D36" s="3">
-        <v>30.650000000000002</v>
+        <v>6.79</v>
       </c>
       <c r="E36" s="3">
-        <v>24.389999999999997</v>
+        <v>3.21</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A36,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A36,数据!B2:B65729,"配售缴款"))</f>
-        <v>138030.6</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A36,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A36,数据!B2:B65770,"配售缴款"))</f>
+        <v>23673.47</v>
       </c>
       <c r="J36" s="19">
         <f t="shared" si="0"/>
-        <v>-7.2392643370383465E-3</v>
+        <v>-2.4628835569944028E-2</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A37" s="12">
-        <v>2224</v>
+        <v>2153</v>
       </c>
       <c r="B37" s="3">
-        <v>-1008.2900000000009</v>
+        <v>-602.36000000000058</v>
       </c>
       <c r="C37" s="3">
-        <v>64.86</v>
+        <v>120.64000000000001</v>
       </c>
       <c r="D37" s="3">
-        <v>17.82</v>
+        <v>27.259999999999994</v>
       </c>
       <c r="E37" s="3">
-        <v>11.61</v>
+        <v>21.459999999999997</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -23045,29 +24012,29 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A37,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A37,数据!B2:B65729,"配售缴款"))</f>
-        <v>65792.459999999992</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A37,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A37,数据!B2:B65770,"配售缴款"))</f>
+        <v>121108.32</v>
       </c>
       <c r="J37" s="19">
         <f t="shared" si="0"/>
-        <v>-1.5325312353421669E-2</v>
+        <v>-4.9737293028257728E-3</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="12">
-        <v>2291</v>
+        <v>300304</v>
       </c>
       <c r="B38" s="3">
-        <v>-1153.1200000000063</v>
+        <v>-869.99999999999636</v>
       </c>
       <c r="C38" s="3">
-        <v>57.07</v>
+        <v>96.32</v>
       </c>
       <c r="D38" s="3">
-        <v>12.83</v>
+        <v>21.520000000000003</v>
       </c>
       <c r="E38" s="3">
-        <v>10.219999999999999</v>
+        <v>17.16</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -23075,59 +24042,59 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A38,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A38,数据!B2:B65729,"配售缴款"))</f>
-        <v>58156.630000000005</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A38,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A38,数据!B2:B65770,"配售缴款"))</f>
+        <v>97070.41</v>
       </c>
       <c r="J38" s="19">
         <f t="shared" si="0"/>
-        <v>-1.9827833903030594E-2</v>
+        <v>-8.9625664504764772E-3</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A39" s="12">
-        <v>600048</v>
+        <v>2224</v>
       </c>
       <c r="B39" s="3">
-        <v>-1220.260000000013</v>
+        <v>-1008.2900000000009</v>
       </c>
       <c r="C39" s="3">
-        <v>244.5</v>
+        <v>64.86</v>
       </c>
       <c r="D39" s="3">
-        <v>64.3</v>
+        <v>17.82</v>
       </c>
       <c r="E39" s="3">
-        <v>33.660000000000004</v>
+        <v>11.61</v>
       </c>
       <c r="F39" s="3">
-        <v>9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A39,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A39,数据!B2:B65729,"配售缴款"))</f>
-        <v>245415.98</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A39,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A39,数据!B2:B65770,"配售缴款"))</f>
+        <v>65792.459999999992</v>
       </c>
       <c r="J39" s="19">
         <f t="shared" si="0"/>
-        <v>-4.972210856033144E-3</v>
+        <v>-1.5325312353421669E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A40" s="12">
-        <v>718</v>
+        <v>2291</v>
       </c>
       <c r="B40" s="3">
-        <v>-1293.6100000000006</v>
+        <v>-1153.1200000000063</v>
       </c>
       <c r="C40" s="3">
-        <v>14.61</v>
+        <v>57.07</v>
       </c>
       <c r="D40" s="3">
-        <v>7.3</v>
+        <v>12.83</v>
       </c>
       <c r="E40" s="3">
-        <v>2.7</v>
+        <v>10.219999999999999</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -23135,149 +24102,149 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A40,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A40,数据!B2:B65729,"配售缴款"))</f>
-        <v>15881</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A40,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A40,数据!B2:B65770,"配售缴款"))</f>
+        <v>58156.630000000005</v>
       </c>
       <c r="J40" s="19">
         <f t="shared" si="0"/>
-        <v>-8.1456457401926863E-2</v>
+        <v>-1.9827833903030594E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A41" s="12">
-        <v>807</v>
+        <v>600438</v>
       </c>
       <c r="B41" s="3">
-        <v>-1544.6800000000003</v>
+        <v>-1153.6700000000055</v>
       </c>
       <c r="C41" s="3">
-        <v>25.98</v>
+        <v>245.46999999999997</v>
       </c>
       <c r="D41" s="3">
-        <v>5.96</v>
+        <v>64.64</v>
       </c>
       <c r="E41" s="3">
-        <v>4.74</v>
+        <v>33.729999999999997</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>9.8299999999999983</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A41,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A41,数据!B2:B65729,"配售缴款"))</f>
-        <v>27497.5</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A41,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A41,数据!B2:B65770,"配售缴款"))</f>
+        <v>246308.19</v>
       </c>
       <c r="J41" s="19">
         <f t="shared" si="0"/>
-        <v>-5.6175288662605703E-2</v>
+        <v>-4.6838475001582591E-3</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A42" s="12">
-        <v>2</v>
+        <v>600048</v>
       </c>
       <c r="B42" s="3">
-        <v>-1859.1899999999805</v>
+        <v>-1220.260000000013</v>
       </c>
       <c r="C42" s="3">
-        <v>535.27</v>
+        <v>244.5</v>
       </c>
       <c r="D42" s="3">
-        <v>139.39999999999998</v>
+        <v>64.3</v>
       </c>
       <c r="E42" s="3">
-        <v>95.21999999999997</v>
+        <v>33.660000000000004</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A42,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A42,数据!B2:B65729,"配售缴款"))</f>
-        <v>538353.29</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A42,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A42,数据!B2:B65770,"配售缴款"))</f>
+        <v>245415.98</v>
       </c>
       <c r="J42" s="19">
         <f t="shared" si="0"/>
-        <v>-3.4534756906565581E-3</v>
+        <v>-4.972210856033144E-3</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A43" s="12">
-        <v>600621</v>
+        <v>718</v>
       </c>
       <c r="B43" s="3">
-        <v>-1891.4100000000035</v>
+        <v>-1293.6100000000006</v>
       </c>
       <c r="C43" s="3">
-        <v>79.41</v>
+        <v>14.61</v>
       </c>
       <c r="D43" s="3">
-        <v>24.47</v>
+        <v>7.3</v>
       </c>
       <c r="E43" s="3">
-        <v>12.8</v>
+        <v>2.7</v>
       </c>
       <c r="F43" s="3">
-        <v>3.7300000000000004</v>
+        <v>0</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A43,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A43,数据!B2:B65729,"配售缴款"))</f>
-        <v>106877.52</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A43,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A43,数据!B2:B65770,"配售缴款"))</f>
+        <v>15881</v>
       </c>
       <c r="J43" s="19">
         <f t="shared" si="0"/>
-        <v>-1.7696986232465007E-2</v>
+        <v>-8.1456457401926863E-2</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A44" s="12">
-        <v>600153</v>
+        <v>806</v>
       </c>
       <c r="B44" s="3">
-        <v>-1900.6900000000023</v>
+        <v>-1491.8999999999869</v>
       </c>
       <c r="C44" s="3">
-        <v>96.300000000000011</v>
+        <v>226.19</v>
       </c>
       <c r="D44" s="3">
-        <v>26.160000000000004</v>
+        <v>50.43</v>
       </c>
       <c r="E44" s="3">
-        <v>13.35</v>
+        <v>40.28</v>
       </c>
       <c r="F44" s="3">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A44,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A44,数据!B2:B65729,"配售缴款"))</f>
-        <v>98083.06</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A44,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A44,数据!B2:B65770,"配售缴款"))</f>
+        <v>227408.47999999998</v>
       </c>
       <c r="J44" s="19">
         <f t="shared" si="0"/>
-        <v>-1.9378371759608666E-2</v>
+        <v>-6.5604413696445582E-3</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A45" s="12">
-        <v>540</v>
+        <v>807</v>
       </c>
       <c r="B45" s="3">
-        <v>-2132.1899999999987</v>
+        <v>-1544.6800000000003</v>
       </c>
       <c r="C45" s="3">
-        <v>0</v>
+        <v>25.98</v>
       </c>
       <c r="D45" s="3">
-        <v>6.8100000000000005</v>
+        <v>5.96</v>
       </c>
       <c r="E45" s="3">
-        <v>5.38</v>
+        <v>4.74</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -23285,29 +24252,29 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A45,数据!B2:B65729,"证券买入")+SUMIFS(数据!I2:I65729,数据!C2:C65729,透析!A45,数据!B2:B65729,"配售缴款"))</f>
-        <v>60932.19</v>
+        <f>ABS(SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A45,数据!B2:B65770,"证券买入")+SUMIFS(数据!I2:I65770,数据!C2:C65770,透析!A45,数据!B2:B65770,"配售缴款"))</f>
+        <v>27497.5</v>
       </c>
       <c r="J45" s="19">
         <f t="shared" si="0"/>
-        <v>-3.499283383709003E-2</v>
+        <v>-5.6175288662605703E-2</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A46" s="12">
-        <v>300428</v>
+        <v>2</v>
       </c>
       <c r="B46" s="3">
-        <v>-2460.8999999999978</v>
+        <v>-1859.1899999999805</v>
       </c>
       <c r="C46" s="3">
-        <v>26.01</v>
+        <v>535.27</v>
       </c>
       <c r="D46" s="3">
-        <v>6.07</v>
+        <v>139.39999999999998</v>
       </c>
       <c r="E46" s="3">
-        <v>4.82</v>
+        <v>95.21999999999997</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -23315,89 +24282,89 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65730,数据!C2:C65730,透析!A46,数据!B2:B65730,"证券买入")+SUMIFS(数据!I2:I65730,数据!C2:C65730,透析!A46,数据!B2:B65730,"配售缴款"))</f>
-        <v>28445.69</v>
+        <f>ABS(SUMIFS(数据!I2:I65771,数据!C2:C65771,透析!A46,数据!B2:B65771,"证券买入")+SUMIFS(数据!I2:I65771,数据!C2:C65771,透析!A46,数据!B2:B65771,"配售缴款"))</f>
+        <v>538353.29</v>
       </c>
       <c r="J46" s="19">
         <f t="shared" ref="J46:J50" si="1">B46/I46</f>
-        <v>-8.6512227335670114E-2</v>
+        <v>-3.4534756906565581E-3</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A47" s="12">
-        <v>806</v>
+        <v>600153</v>
       </c>
       <c r="B47" s="3">
-        <v>-2637.3299999999945</v>
+        <v>-1900.6900000000023</v>
       </c>
       <c r="C47" s="3">
-        <v>187.04000000000002</v>
+        <v>96.300000000000011</v>
       </c>
       <c r="D47" s="3">
-        <v>41.88</v>
+        <v>26.160000000000004</v>
       </c>
       <c r="E47" s="3">
-        <v>33.409999999999997</v>
+        <v>13.35</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65731,数据!C2:C65731,透析!A47,数据!B2:B65731,"证券买入")+SUMIFS(数据!I2:I65731,数据!C2:C65731,透析!A47,数据!B2:B65731,"配售缴款"))</f>
-        <v>189450.88999999998</v>
+        <f>ABS(SUMIFS(数据!I2:I65772,数据!C2:C65772,透析!A47,数据!B2:B65772,"证券买入")+SUMIFS(数据!I2:I65772,数据!C2:C65772,透析!A47,数据!B2:B65772,"配售缴款"))</f>
+        <v>98083.06</v>
       </c>
       <c r="J47" s="19">
         <f t="shared" si="1"/>
-        <v>-1.3920916391577758E-2</v>
+        <v>-1.9378371759608666E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A48" s="12">
-        <v>603811</v>
+        <v>540</v>
       </c>
       <c r="B48" s="3">
-        <v>-2945.5499999999993</v>
+        <v>-2132.1899999999987</v>
       </c>
       <c r="C48" s="3">
-        <v>92.99</v>
+        <v>0</v>
       </c>
       <c r="D48" s="3">
-        <v>24.770000000000003</v>
+        <v>6.8100000000000005</v>
       </c>
       <c r="E48" s="3">
-        <v>12.99</v>
+        <v>5.38</v>
       </c>
       <c r="F48" s="3">
-        <v>3.8000000000000003</v>
+        <v>0</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65732,数据!C2:C65732,透析!A48,数据!B2:B65732,"证券买入")+SUMIFS(数据!I2:I65732,数据!C2:C65732,透析!A48,数据!B2:B65732,"配售缴款"))</f>
-        <v>95823.09</v>
+        <f>ABS(SUMIFS(数据!I2:I65773,数据!C2:C65773,透析!A48,数据!B2:B65773,"证券买入")+SUMIFS(数据!I2:I65773,数据!C2:C65773,透析!A48,数据!B2:B65773,"配售缴款"))</f>
+        <v>60932.19</v>
       </c>
       <c r="J48" s="19">
         <f t="shared" si="1"/>
-        <v>-3.0739459560320998E-2</v>
+        <v>-3.499283383709003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A49" s="12">
-        <v>510050</v>
+        <v>300428</v>
       </c>
       <c r="B49" s="3">
-        <v>-3018.580000000009</v>
+        <v>-2460.8999999999978</v>
       </c>
       <c r="C49" s="3">
-        <v>0</v>
+        <v>26.01</v>
       </c>
       <c r="D49" s="3">
-        <v>45.13</v>
+        <v>6.07</v>
       </c>
       <c r="E49" s="3">
-        <v>36.949999999999996</v>
+        <v>4.82</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -23405,89 +24372,89 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65733,数据!C2:C65733,透析!A49,数据!B2:B65733,"证券买入")+SUMIFS(数据!I2:I65733,数据!C2:C65733,透析!A49,数据!B2:B65733,"配售缴款"))</f>
-        <v>411845.7900000001</v>
+        <f>ABS(SUMIFS(数据!I2:I65774,数据!C2:C65774,透析!A49,数据!B2:B65774,"证券买入")+SUMIFS(数据!I2:I65774,数据!C2:C65774,透析!A49,数据!B2:B65774,"配售缴款"))</f>
+        <v>28445.69</v>
       </c>
       <c r="J49" s="19">
         <f t="shared" si="1"/>
-        <v>-7.3293938490909625E-3</v>
+        <v>-8.6512227335670114E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A50" s="12">
-        <v>600177</v>
+        <v>2783</v>
       </c>
       <c r="B50" s="3">
-        <v>-3193.2900000000009</v>
+        <v>-2724.4799999999996</v>
       </c>
       <c r="C50" s="3">
-        <v>86.54</v>
+        <v>96.17</v>
       </c>
       <c r="D50" s="3">
-        <v>23.1</v>
+        <v>29.07</v>
       </c>
       <c r="E50" s="3">
-        <v>12.13</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="F50" s="3">
-        <v>3.52</v>
+        <v>0</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65734,数据!C2:C65734,透析!A50,数据!B2:B65734,"证券买入")+SUMIFS(数据!I2:I65734,数据!C2:C65734,透析!A50,数据!B2:B65734,"配售缴款"))</f>
-        <v>89620.72</v>
+        <f>ABS(SUMIFS(数据!I2:I65775,数据!C2:C65775,透析!A50,数据!B2:B65775,"证券买入")+SUMIFS(数据!I2:I65775,数据!C2:C65775,透析!A50,数据!B2:B65775,"配售缴款"))</f>
+        <v>98770.48</v>
       </c>
       <c r="J50" s="19">
         <f t="shared" si="1"/>
-        <v>-3.5631157616229828E-2</v>
+        <v>-2.7583950184306077E-2</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A51" s="12">
-        <v>2783</v>
+        <v>603811</v>
       </c>
       <c r="B51" s="3">
-        <v>-3284.6499999999978</v>
+        <v>-2945.5499999999993</v>
       </c>
       <c r="C51" s="3">
-        <v>59.519999999999996</v>
+        <v>92.99</v>
       </c>
       <c r="D51" s="3">
-        <v>21.16</v>
+        <v>24.770000000000003</v>
       </c>
       <c r="E51" s="3">
-        <v>10.97</v>
+        <v>12.99</v>
       </c>
       <c r="F51" s="3">
-        <v>0</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65735,数据!C2:C65735,透析!A51,数据!B2:B65735,"证券买入")+SUMIFS(数据!I2:I65735,数据!C2:C65735,透析!A51,数据!B2:B65735,"配售缴款"))</f>
-        <v>64523.63</v>
+        <f>ABS(SUMIFS(数据!I2:I65776,数据!C2:C65776,透析!A51,数据!B2:B65776,"证券买入")+SUMIFS(数据!I2:I65776,数据!C2:C65776,透析!A51,数据!B2:B65776,"配售缴款"))</f>
+        <v>95823.09</v>
       </c>
       <c r="J51" s="19">
         <f t="shared" ref="J51:J53" si="2">B51/I51</f>
-        <v>-5.0906156395726619E-2</v>
+        <v>-3.0739459560320998E-2</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A52" s="12">
-        <v>2613</v>
+        <v>510050</v>
       </c>
       <c r="B52" s="3">
-        <v>-3346.1600000000035</v>
+        <v>-3018.580000000009</v>
       </c>
       <c r="C52" s="3">
-        <v>96.8</v>
+        <v>0</v>
       </c>
       <c r="D52" s="3">
-        <v>21.89</v>
+        <v>45.13</v>
       </c>
       <c r="E52" s="3">
-        <v>17.47</v>
+        <v>36.949999999999996</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -23495,402 +24462,442 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65736,数据!C2:C65736,透析!A52,数据!B2:B65736,"证券买入")+SUMIFS(数据!I2:I65736,数据!C2:C65736,透析!A52,数据!B2:B65736,"配售缴款"))</f>
-        <v>100030</v>
+        <f>ABS(SUMIFS(数据!I2:I65777,数据!C2:C65777,透析!A52,数据!B2:B65777,"证券买入")+SUMIFS(数据!I2:I65777,数据!C2:C65777,透析!A52,数据!B2:B65777,"配售缴款"))</f>
+        <v>411845.7900000001</v>
       </c>
       <c r="J52" s="19">
         <f t="shared" si="2"/>
-        <v>-3.345156453064084E-2</v>
+        <v>-7.3293938490909625E-3</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A53" s="12">
-        <v>338</v>
+        <v>600177</v>
       </c>
       <c r="B53" s="3">
-        <v>-3771.630000000001</v>
+        <v>-3193.2900000000009</v>
       </c>
       <c r="C53" s="3">
-        <v>25.07</v>
+        <v>86.54</v>
       </c>
       <c r="D53" s="3">
-        <v>8.65</v>
+        <v>23.1</v>
       </c>
       <c r="E53" s="3">
-        <v>6.91</v>
+        <v>12.13</v>
       </c>
       <c r="F53" s="3">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="G53"/>
       <c r="I53" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65737,数据!C2:C65737,透析!A53,数据!B2:B65737,"证券买入")+SUMIFS(数据!I2:I65737,数据!C2:C65737,透析!A53,数据!B2:B65737,"配售缴款"))</f>
-        <v>52732.55</v>
+        <f>ABS(SUMIFS(数据!I2:I65778,数据!C2:C65778,透析!A53,数据!B2:B65778,"证券买入")+SUMIFS(数据!I2:I65778,数据!C2:C65778,透析!A53,数据!B2:B65778,"配售缴款"))</f>
+        <v>89620.72</v>
       </c>
       <c r="J53" s="19">
         <f t="shared" si="2"/>
-        <v>-7.152375525173732E-2</v>
+        <v>-3.5631157616229828E-2</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A54" s="12">
-        <v>902</v>
+        <v>2613</v>
       </c>
       <c r="B54" s="3">
-        <v>-4636.3700000000026</v>
+        <v>-3346.1600000000035</v>
       </c>
       <c r="C54" s="3">
-        <v>63.44</v>
+        <v>96.8</v>
       </c>
       <c r="D54" s="3">
-        <v>18.3</v>
+        <v>21.89</v>
       </c>
       <c r="E54" s="3">
-        <v>11.63</v>
+        <v>17.47</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54"/>
       <c r="I54" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65738,数据!C2:C65738,透析!A54,数据!B2:B65738,"证券买入")+SUMIFS(数据!I2:I65738,数据!C2:C65738,透析!A54,数据!B2:B65738,"配售缴款"))</f>
-        <v>67983.59</v>
+        <f>ABS(SUMIFS(数据!I2:I65779,数据!C2:C65779,透析!A54,数据!B2:B65779,"证券买入")+SUMIFS(数据!I2:I65779,数据!C2:C65779,透析!A54,数据!B2:B65779,"配售缴款"))</f>
+        <v>100030</v>
       </c>
       <c r="J54" s="19">
         <f t="shared" ref="J54:J64" si="3">B54/I54</f>
-        <v>-6.8198369635966608E-2</v>
+        <v>-3.345156453064084E-2</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A55" s="12">
-        <v>603505</v>
+        <v>338</v>
       </c>
       <c r="B55" s="3">
-        <v>-5143.4500000000116</v>
+        <v>-3510.8500000000022</v>
       </c>
       <c r="C55" s="3">
-        <v>179.77</v>
+        <v>49.29</v>
       </c>
       <c r="D55" s="3">
-        <v>48.169999999999995</v>
+        <v>11.51</v>
       </c>
       <c r="E55" s="3">
-        <v>25.18</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="F55" s="3">
-        <v>7.33</v>
+        <v>0</v>
       </c>
       <c r="G55"/>
       <c r="I55" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65739,数据!C2:C65739,透析!A55,数据!B2:B65739,"证券买入")+SUMIFS(数据!I2:I65739,数据!C2:C65739,透析!A55,数据!B2:B65739,"配售缴款"))</f>
-        <v>187058.14</v>
+        <f>ABS(SUMIFS(数据!I2:I65780,数据!C2:C65780,透析!A55,数据!B2:B65780,"证券买入")+SUMIFS(数据!I2:I65780,数据!C2:C65780,透析!A55,数据!B2:B65780,"配售缴款"))</f>
+        <v>52732.55</v>
       </c>
       <c r="J55" s="19">
         <f t="shared" si="3"/>
-        <v>-2.7496531292356543E-2</v>
+        <v>-6.6578422625114889E-2</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A56" s="12">
-        <v>2820</v>
+        <v>902</v>
       </c>
       <c r="B56" s="3">
-        <v>-5763.0799999999981</v>
+        <v>-4636.3699999999917</v>
       </c>
       <c r="C56" s="3">
-        <v>27.1</v>
+        <v>63.44</v>
       </c>
       <c r="D56" s="3">
-        <v>6.66</v>
+        <v>18.3</v>
       </c>
       <c r="E56" s="3">
-        <v>5.32</v>
+        <v>11.629999999999999</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56"/>
       <c r="I56" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A56,数据!B2:B65740,"证券买入")+SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A56,数据!B2:B65740,"配售缴款"))</f>
-        <v>32826.559999999998</v>
+        <f>ABS(SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A56,数据!B2:B65781,"证券买入")+SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A56,数据!B2:B65781,"配售缴款"))</f>
+        <v>67983.59</v>
       </c>
       <c r="J56" s="19">
         <f t="shared" si="3"/>
-        <v>-0.17556149654426167</v>
+        <v>-6.8198369635966441E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A57" s="12">
-        <v>300325</v>
+        <v>603505</v>
       </c>
       <c r="B57" s="3">
-        <v>-6366.5900000000038</v>
+        <v>-5040.2900000000081</v>
       </c>
       <c r="C57" s="3">
-        <v>75.959999999999994</v>
+        <v>216.15</v>
       </c>
       <c r="D57" s="3">
-        <v>17.590000000000003</v>
+        <v>57.39</v>
       </c>
       <c r="E57" s="3">
-        <v>14.040000000000001</v>
+        <v>30.009999999999998</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>8.74</v>
       </c>
       <c r="G57"/>
       <c r="I57" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A57,数据!B2:B65740,"证券买入")+SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A57,数据!B2:B65740,"配售缴款"))</f>
-        <v>82239.44</v>
+        <f>ABS(SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A57,数据!B2:B65781,"证券买入")+SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A57,数据!B2:B65781,"配售缴款"))</f>
+        <v>220921.59000000003</v>
       </c>
       <c r="J57" s="19">
         <f t="shared" si="3"/>
-        <v>-7.7415288820060102E-2</v>
+        <v>-2.2814836702922552E-2</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A58" s="12">
-        <v>601336</v>
+        <v>2820</v>
       </c>
       <c r="B58" s="3">
-        <v>-7622.3000000000102</v>
+        <v>-5763.0799999999981</v>
       </c>
       <c r="C58" s="3">
-        <v>165.63</v>
+        <v>27.1</v>
       </c>
       <c r="D58" s="3">
-        <v>45.18</v>
+        <v>6.66</v>
       </c>
       <c r="E58" s="3">
-        <v>23.62</v>
+        <v>5.32</v>
       </c>
       <c r="F58" s="3">
-        <v>6.87</v>
+        <v>0</v>
       </c>
       <c r="G58"/>
       <c r="I58" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A58,数据!B2:B65740,"证券买入")+SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A58,数据!B2:B65740,"配售缴款"))</f>
-        <v>178422.23</v>
+        <f>ABS(SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A58,数据!B2:B65781,"证券买入")+SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A58,数据!B2:B65781,"配售缴款"))</f>
+        <v>32826.559999999998</v>
       </c>
       <c r="J58" s="19">
         <f t="shared" si="3"/>
-        <v>-4.2720573551849508E-2</v>
+        <v>-0.17556149654426167</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A59" s="12">
-        <v>603800</v>
+        <v>300325</v>
       </c>
       <c r="B59" s="3">
-        <v>-7889.7499999999818</v>
+        <v>-6366.5900000000038</v>
       </c>
       <c r="C59" s="3">
-        <v>353.59000000000003</v>
+        <v>75.959999999999994</v>
       </c>
       <c r="D59" s="3">
-        <v>93.809999999999988</v>
+        <v>17.590000000000003</v>
       </c>
       <c r="E59" s="3">
-        <v>49.07</v>
+        <v>14.040000000000001</v>
       </c>
       <c r="F59" s="3">
-        <v>14.28</v>
+        <v>0</v>
       </c>
       <c r="G59"/>
       <c r="I59" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A59,数据!B2:B65740,"证券买入")+SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A59,数据!B2:B65740,"配售缴款"))</f>
-        <v>361028.38999999996</v>
+        <f>ABS(SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A59,数据!B2:B65781,"证券买入")+SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A59,数据!B2:B65781,"配售缴款"))</f>
+        <v>82239.44</v>
       </c>
       <c r="J59" s="19">
         <f t="shared" si="3"/>
-        <v>-2.1853544537037608E-2</v>
+        <v>-7.7415288820060102E-2</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A60" s="12">
-        <v>2803</v>
+        <v>601336</v>
       </c>
       <c r="B60" s="3">
-        <v>-8415.93</v>
+        <v>-7698.6000000000276</v>
       </c>
       <c r="C60" s="3">
-        <v>31.61</v>
+        <v>207.63000000000002</v>
       </c>
       <c r="D60" s="3">
-        <v>7.95</v>
+        <v>55.51</v>
       </c>
       <c r="E60" s="3">
-        <v>6.3699999999999992</v>
+        <v>29.02</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>8.44</v>
       </c>
       <c r="G60"/>
       <c r="I60" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A60,数据!B2:B65740,"证券买入")+SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A60,数据!B2:B65740,"配售缴款"))</f>
-        <v>39986</v>
+        <f>ABS(SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A60,数据!B2:B65781,"证券买入")+SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A60,数据!B2:B65781,"配售缴款"))</f>
+        <v>215070.29</v>
       </c>
       <c r="J60" s="19">
         <f t="shared" si="3"/>
-        <v>-0.21047191517030961</v>
+        <v>-3.5795739151139969E-2</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A61" s="12">
-        <v>761</v>
+        <v>603800</v>
       </c>
       <c r="B61" s="3">
-        <v>-8493.61</v>
+        <v>-7889.7499999999818</v>
       </c>
       <c r="C61" s="3">
-        <v>159.5</v>
+        <v>353.59000000000003</v>
       </c>
       <c r="D61" s="3">
-        <v>41.109999999999992</v>
+        <v>93.809999999999988</v>
       </c>
       <c r="E61" s="3">
-        <v>29</v>
+        <v>49.07</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>14.28</v>
       </c>
       <c r="G61"/>
       <c r="I61" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A61,数据!B2:B65740,"证券买入")+SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A61,数据!B2:B65740,"配售缴款"))</f>
-        <v>167791.21</v>
+        <f>ABS(SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A61,数据!B2:B65781,"证券买入")+SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A61,数据!B2:B65781,"配售缴款"))</f>
+        <v>361028.38999999996</v>
       </c>
       <c r="J61" s="19">
         <f t="shared" si="3"/>
-        <v>-5.0620112936786144E-2</v>
+        <v>-2.1853544537037608E-2</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A62" s="12">
-        <v>300299</v>
+        <v>2803</v>
       </c>
       <c r="B62" s="3">
-        <v>-10820.930000000002</v>
+        <v>-8415.93</v>
       </c>
       <c r="C62" s="3">
-        <v>134.99</v>
+        <v>31.61</v>
       </c>
       <c r="D62" s="3">
-        <v>31.32</v>
+        <v>7.95</v>
       </c>
       <c r="E62" s="3">
-        <v>24.919999999999998</v>
+        <v>6.3699999999999992</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62"/>
       <c r="I62" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A62,数据!B2:B65740,"证券买入")+SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A62,数据!B2:B65740,"配售缴款"))</f>
-        <v>145881.24</v>
+        <f>ABS(SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A62,数据!B2:B65781,"证券买入")+SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A62,数据!B2:B65781,"配售缴款"))</f>
+        <v>39986</v>
       </c>
       <c r="J62" s="19">
         <f t="shared" si="3"/>
-        <v>-7.4176295732062622E-2</v>
+        <v>-0.21047191517030961</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A63" s="12">
-        <v>961</v>
+        <v>761</v>
       </c>
       <c r="B63" s="3">
-        <v>-12884.87999999999</v>
+        <v>-8493.61</v>
       </c>
       <c r="C63" s="3">
-        <v>118.83000000000001</v>
+        <v>159.5</v>
       </c>
       <c r="D63" s="3">
-        <v>28.830000000000002</v>
+        <v>41.109999999999992</v>
       </c>
       <c r="E63" s="3">
-        <v>22.22</v>
+        <v>29</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
       </c>
       <c r="G63"/>
       <c r="I63" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A63,数据!B2:B65740,"证券买入")+SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A63,数据!B2:B65740,"配售缴款"))</f>
-        <v>131567.31</v>
+        <f>ABS(SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A63,数据!B2:B65781,"证券买入")+SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A63,数据!B2:B65781,"配售缴款"))</f>
+        <v>167791.21</v>
       </c>
       <c r="J63" s="19">
         <f t="shared" si="3"/>
-        <v>-9.7933749652554192E-2</v>
+        <v>-5.0620112936786144E-2</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A64" s="12">
-        <v>603015</v>
+        <v>300299</v>
       </c>
       <c r="B64" s="3">
-        <v>-23307.919999999998</v>
+        <v>-10828.359999999995</v>
       </c>
       <c r="C64" s="3">
-        <v>136.49</v>
+        <v>134.99</v>
       </c>
       <c r="D64" s="3">
-        <v>42.11</v>
+        <v>35.46</v>
       </c>
       <c r="E64" s="3">
-        <v>20.380000000000003</v>
+        <v>28.209999999999997</v>
       </c>
       <c r="F64" s="3">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="G64"/>
       <c r="I64" s="4">
-        <f>ABS(SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A64,数据!B2:B65740,"证券买入")+SUMIFS(数据!I2:I65740,数据!C2:C65740,透析!A64,数据!B2:B65740,"配售缴款"))</f>
-        <v>159654.12</v>
+        <f>ABS(SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A64,数据!B2:B65781,"证券买入")+SUMIFS(数据!I2:I65781,数据!C2:C65781,透析!A64,数据!B2:B65781,"配售缴款"))</f>
+        <v>183013.66999999998</v>
       </c>
       <c r="J64" s="19">
         <f t="shared" si="3"/>
+        <v>-5.9166946381655511E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="12">
+        <v>961</v>
+      </c>
+      <c r="B65" s="3">
+        <v>-12884.87999999999</v>
+      </c>
+      <c r="C65" s="3">
+        <v>118.83000000000001</v>
+      </c>
+      <c r="D65" s="3">
+        <v>28.830000000000002</v>
+      </c>
+      <c r="E65" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65"/>
+      <c r="I65" s="4">
+        <f>ABS(SUMIFS(数据!I2:I65782,数据!C2:C65782,透析!A65,数据!B2:B65782,"证券买入")+SUMIFS(数据!I2:I65782,数据!C2:C65782,透析!A65,数据!B2:B65782,"配售缴款"))</f>
+        <v>131567.31</v>
+      </c>
+      <c r="J65" s="19">
+        <f t="shared" ref="J65:J66" si="4">B65/I65</f>
+        <v>-9.7933749652554192E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="12">
+        <v>603015</v>
+      </c>
+      <c r="B66" s="3">
+        <v>-23307.919999999998</v>
+      </c>
+      <c r="C66" s="3">
+        <v>136.49</v>
+      </c>
+      <c r="D66" s="3">
+        <v>42.11</v>
+      </c>
+      <c r="E66" s="3">
+        <v>20.380000000000003</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5.94</v>
+      </c>
+      <c r="G66"/>
+      <c r="I66" s="4">
+        <f>ABS(SUMIFS(数据!I2:I65783,数据!C2:C65783,透析!A66,数据!B2:B65783,"证券买入")+SUMIFS(数据!I2:I65783,数据!C2:C65783,透析!A66,数据!B2:B65783,"配售缴款"))</f>
+        <v>159654.12</v>
+      </c>
+      <c r="J66" s="19">
+        <f t="shared" si="4"/>
         <v>-0.14599009408589017</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="B65" s="3">
-        <v>-13365.899999999985</v>
-      </c>
-      <c r="C65" s="3">
-        <v>7684.8400000000011</v>
-      </c>
-      <c r="D65" s="3">
-        <v>2141.8699999999994</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1284.4600000000005</v>
-      </c>
-      <c r="F65" s="3">
-        <v>199.93000000000004</v>
-      </c>
-      <c r="G65"/>
-    </row>
-    <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-    </row>
-    <row r="67" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
+    <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B67" s="3">
+        <v>-11598.230000000043</v>
+      </c>
+      <c r="C67" s="3">
+        <v>8121.24</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2262.3999999999996</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1359.0200000000004</v>
+      </c>
+      <c r="F67" s="3">
+        <v>211.77000000000007</v>
+      </c>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -23899,7 +24906,7 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -23908,7 +24915,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -23917,7 +24924,7 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -23926,7 +24933,7 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -23935,7 +24942,7 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -23944,7 +24951,7 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -23953,7 +24960,7 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -23962,7 +24969,7 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -23971,7 +24978,7 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -23980,7 +24987,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -23989,7 +24996,7 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -23998,7 +25005,7 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -32444,10 +33451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R820"/>
+  <dimension ref="A1:R863"/>
   <sheetViews>
-    <sheetView topLeftCell="A790" workbookViewId="0">
-      <selection activeCell="A808" sqref="A808:XFD814"/>
+    <sheetView topLeftCell="A804" workbookViewId="0">
+      <selection activeCell="G861" sqref="G861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -76837,7 +77844,7 @@
         <v>0</v>
       </c>
       <c r="Q810" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="R810" s="2">
         <v>197574848</v>
@@ -77059,221 +78066,2476 @@
         <v>0</v>
       </c>
       <c r="Q814" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="R814" s="2">
         <v>197574848</v>
       </c>
     </row>
-    <row r="815" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A815" s="2">
+        <v>20180309</v>
+      </c>
       <c r="B815" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C815" s="12">
-        <v>540</v>
+        <v>30</v>
+      </c>
+      <c r="C815" s="2">
+        <v>952100</v>
       </c>
       <c r="D815" s="2" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E815" s="20">
-        <v>7.35</v>
+        <v>100</v>
       </c>
       <c r="F815" s="21">
-        <v>8000</v>
+        <v>27024</v>
       </c>
       <c r="G815" s="21">
-        <v>8000</v>
+        <v>25242</v>
       </c>
       <c r="H815" s="21">
-        <f t="shared" ref="H815" si="0">E815*F815</f>
-        <v>58800</v>
+        <v>27024.35</v>
       </c>
       <c r="I815" s="21">
-        <f t="shared" ref="I815:I816" si="1">H815</f>
-        <v>58800</v>
-      </c>
-      <c r="J815" s="21"/>
-      <c r="K815" s="21"/>
-      <c r="L815" s="21"/>
-      <c r="M815" s="21"/>
-      <c r="N815" s="21"/>
-      <c r="O815" s="21"/>
-      <c r="P815" s="21"/>
-    </row>
-    <row r="816" spans="1:18" x14ac:dyDescent="0.15">
+        <v>27024.35</v>
+      </c>
+      <c r="J815" s="21">
+        <v>81267.399999999994</v>
+      </c>
+      <c r="K815" s="21">
+        <v>0</v>
+      </c>
+      <c r="L815" s="21">
+        <v>0</v>
+      </c>
+      <c r="M815" s="21">
+        <v>0</v>
+      </c>
+      <c r="N815" s="21">
+        <v>0</v>
+      </c>
+      <c r="O815" s="21">
+        <v>0</v>
+      </c>
+      <c r="P815" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q815" s="2"/>
+      <c r="R815" s="2">
+        <v>980103988319</v>
+      </c>
+    </row>
+    <row r="816" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A816" s="2">
+        <v>20180309</v>
+      </c>
       <c r="B816" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C816" s="12">
-        <v>601336</v>
+        <v>23</v>
+      </c>
+      <c r="C816" s="2">
+        <v>600438</v>
       </c>
       <c r="D816" s="2" t="s">
-        <v>359</v>
+        <v>48</v>
       </c>
       <c r="E816" s="20">
-        <v>53.8</v>
+        <v>10.4</v>
       </c>
       <c r="F816" s="21">
+        <v>2500</v>
+      </c>
+      <c r="G816" s="21">
+        <v>2500</v>
+      </c>
+      <c r="H816" s="21">
+        <v>26000</v>
+      </c>
+      <c r="I816" s="21">
+        <v>-26005.71</v>
+      </c>
+      <c r="J816" s="21">
+        <v>55261.69</v>
+      </c>
+      <c r="K816" s="21">
+        <v>3.43</v>
+      </c>
+      <c r="L816" s="21">
+        <v>1.77</v>
+      </c>
+      <c r="M816" s="21">
+        <v>0</v>
+      </c>
+      <c r="N816" s="21">
+        <v>0.51</v>
+      </c>
+      <c r="O816" s="21">
+        <v>0</v>
+      </c>
+      <c r="P816" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q816" s="2">
+        <v>1124003488</v>
+      </c>
+      <c r="R816" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="817" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A817" s="2">
+        <v>20180309</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C817" s="2">
+        <v>600621</v>
+      </c>
+      <c r="D817" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E817" s="20">
+        <v>12.5</v>
+      </c>
+      <c r="F817" s="21">
+        <v>2100</v>
+      </c>
+      <c r="G817" s="21">
+        <v>4200</v>
+      </c>
+      <c r="H817" s="21">
+        <v>26250</v>
+      </c>
+      <c r="I817" s="21">
+        <v>-26255.78</v>
+      </c>
+      <c r="J817" s="21">
+        <v>29005.91</v>
+      </c>
+      <c r="K817" s="21">
+        <v>3.44</v>
+      </c>
+      <c r="L817" s="21">
+        <v>1.81</v>
+      </c>
+      <c r="M817" s="21">
+        <v>0</v>
+      </c>
+      <c r="N817" s="21">
+        <v>0.53</v>
+      </c>
+      <c r="O817" s="21">
+        <v>0</v>
+      </c>
+      <c r="P817" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q817" s="2">
+        <v>1124003931</v>
+      </c>
+      <c r="R817" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="818" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A818" s="2">
+        <v>20180309</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C818" s="2">
+        <v>2537</v>
+      </c>
+      <c r="D818" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E818" s="20">
+        <v>11.2</v>
+      </c>
+      <c r="F818" s="21">
+        <v>2500</v>
+      </c>
+      <c r="G818" s="21">
+        <v>2500</v>
+      </c>
+      <c r="H818" s="21">
+        <v>28000</v>
+      </c>
+      <c r="I818" s="21">
+        <v>-28005.599999999999</v>
+      </c>
+      <c r="J818" s="21">
+        <v>1000.31</v>
+      </c>
+      <c r="K818" s="21">
+        <v>3.14</v>
+      </c>
+      <c r="L818" s="21">
+        <v>2.46</v>
+      </c>
+      <c r="M818" s="21">
+        <v>0</v>
+      </c>
+      <c r="N818" s="21">
+        <v>0</v>
+      </c>
+      <c r="O818" s="21">
+        <v>0</v>
+      </c>
+      <c r="P818" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q818" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R818" s="2">
+        <v>197574848</v>
+      </c>
+    </row>
+    <row r="819" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A819" s="2">
+        <v>20180312</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C819" s="2">
+        <v>952100</v>
+      </c>
+      <c r="D819" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E819" s="20">
         <v>100</v>
       </c>
-      <c r="G816" s="21">
-        <v>100</v>
-      </c>
-      <c r="H816" s="21">
-        <f t="shared" ref="H816:H820" si="2">E816*F816</f>
-        <v>5380</v>
-      </c>
-      <c r="I816" s="21">
-        <f t="shared" si="1"/>
-        <v>5380</v>
-      </c>
-      <c r="J816" s="21"/>
-      <c r="K816" s="21"/>
-      <c r="L816" s="21"/>
-      <c r="M816" s="21"/>
-      <c r="N816" s="21"/>
-      <c r="O816" s="21"/>
-      <c r="P816" s="21"/>
-    </row>
-    <row r="817" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B817" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C817" s="12">
-        <v>338</v>
-      </c>
-      <c r="D817" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E817" s="20">
-        <v>8.25</v>
-      </c>
-      <c r="F817" s="21">
-        <v>2900</v>
-      </c>
-      <c r="G817" s="21">
-        <v>2900</v>
-      </c>
-      <c r="H817" s="21">
-        <f t="shared" si="2"/>
-        <v>23925</v>
-      </c>
-      <c r="I817" s="21">
-        <f t="shared" ref="I817:I818" si="3">H817</f>
-        <v>23925</v>
-      </c>
-      <c r="J817" s="21"/>
-      <c r="K817" s="21"/>
-      <c r="L817" s="21"/>
-      <c r="M817" s="21"/>
-      <c r="N817" s="21"/>
-      <c r="O817" s="21"/>
-      <c r="P817" s="21"/>
-    </row>
-    <row r="818" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B818" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C818" s="12">
-        <v>2783</v>
-      </c>
-      <c r="D818" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E818" s="20">
-        <v>17.940000000000001</v>
-      </c>
-      <c r="F818" s="21">
-        <v>100</v>
-      </c>
-      <c r="G818" s="21">
-        <v>100</v>
-      </c>
-      <c r="H818" s="21">
-        <f t="shared" si="2"/>
-        <v>1794.0000000000002</v>
-      </c>
-      <c r="I818" s="21">
-        <f t="shared" si="3"/>
-        <v>1794.0000000000002</v>
-      </c>
-      <c r="J818" s="21"/>
-      <c r="K818" s="21"/>
-      <c r="L818" s="21"/>
-      <c r="M818" s="21"/>
-      <c r="N818" s="21"/>
-      <c r="O818" s="21"/>
-      <c r="P818" s="21"/>
-    </row>
-    <row r="819" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B819" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C819" s="12">
-        <v>603505</v>
-      </c>
-      <c r="D819" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E819" s="20">
-        <v>23.69</v>
-      </c>
       <c r="F819" s="21">
-        <v>100</v>
+        <v>84612</v>
       </c>
       <c r="G819" s="21">
-        <v>100</v>
+        <v>109855</v>
       </c>
       <c r="H819" s="21">
-        <f t="shared" si="2"/>
-        <v>2369</v>
+        <v>84612.33</v>
       </c>
       <c r="I819" s="21">
-        <f t="shared" ref="I819" si="4">H819</f>
-        <v>2369</v>
-      </c>
-      <c r="J819" s="21"/>
-      <c r="K819" s="21"/>
-      <c r="L819" s="21"/>
-      <c r="M819" s="21"/>
-      <c r="N819" s="21"/>
-      <c r="O819" s="21"/>
-      <c r="P819" s="21"/>
-    </row>
-    <row r="820" spans="2:16" x14ac:dyDescent="0.15">
+        <v>-84612.33</v>
+      </c>
+      <c r="J819" s="21">
+        <v>-83612.02</v>
+      </c>
+      <c r="K819" s="21">
+        <v>0</v>
+      </c>
+      <c r="L819" s="21">
+        <v>0</v>
+      </c>
+      <c r="M819" s="21">
+        <v>0</v>
+      </c>
+      <c r="N819" s="21">
+        <v>0</v>
+      </c>
+      <c r="O819" s="21">
+        <v>0</v>
+      </c>
+      <c r="P819" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q819" s="2"/>
+      <c r="R819" s="2">
+        <v>980103988319</v>
+      </c>
+    </row>
+    <row r="820" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A820" s="2">
+        <v>20180312</v>
+      </c>
       <c r="B820" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C820" s="12">
+      <c r="C820" s="2">
         <v>600621</v>
       </c>
       <c r="D820" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E820" s="20">
+        <v>13.2</v>
+      </c>
+      <c r="F820" s="21">
+        <v>4200</v>
+      </c>
+      <c r="G820" s="21">
+        <v>0</v>
+      </c>
+      <c r="H820" s="21">
+        <v>55440</v>
+      </c>
+      <c r="I820" s="21">
+        <v>55372.36</v>
+      </c>
+      <c r="J820" s="21">
+        <v>-28239.66</v>
+      </c>
+      <c r="K820" s="21">
+        <v>7.27</v>
+      </c>
+      <c r="L820" s="21">
+        <v>3.82</v>
+      </c>
+      <c r="M820" s="21">
+        <v>55.44</v>
+      </c>
+      <c r="N820" s="21">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="O820" s="21">
+        <v>0</v>
+      </c>
+      <c r="P820" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q820" s="2">
+        <v>1124000108</v>
+      </c>
+      <c r="R820" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="821" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A821" s="2">
+        <v>20180312</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C821" s="2">
+        <v>2537</v>
+      </c>
+      <c r="D821" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E821" s="20">
+        <v>11.71</v>
+      </c>
+      <c r="F821" s="21">
+        <v>2500</v>
+      </c>
+      <c r="G821" s="21">
+        <v>0</v>
+      </c>
+      <c r="H821" s="21">
+        <v>29275</v>
+      </c>
+      <c r="I821" s="21">
+        <v>29239.86</v>
+      </c>
+      <c r="J821" s="21">
+        <v>1000.2</v>
+      </c>
+      <c r="K821" s="21">
+        <v>3.27</v>
+      </c>
+      <c r="L821" s="21">
+        <v>2.59</v>
+      </c>
+      <c r="M821" s="21">
+        <v>29.28</v>
+      </c>
+      <c r="N821" s="21">
+        <v>0</v>
+      </c>
+      <c r="O821" s="21">
+        <v>0</v>
+      </c>
+      <c r="P821" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q821" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="R821" s="2">
+        <v>197574848</v>
+      </c>
+    </row>
+    <row r="822" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A822" s="2">
+        <v>20180313</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C822" s="2">
+        <v>952100</v>
+      </c>
+      <c r="D822" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E822" s="20">
+        <v>100</v>
+      </c>
+      <c r="F822" s="21">
+        <v>58644</v>
+      </c>
+      <c r="G822" s="21">
+        <v>51210</v>
+      </c>
+      <c r="H822" s="21">
+        <v>58644.800000000003</v>
+      </c>
+      <c r="I822" s="21">
+        <v>58644.800000000003</v>
+      </c>
+      <c r="J822" s="21">
+        <v>59645</v>
+      </c>
+      <c r="K822" s="21">
+        <v>0</v>
+      </c>
+      <c r="L822" s="21">
+        <v>0</v>
+      </c>
+      <c r="M822" s="21">
+        <v>0</v>
+      </c>
+      <c r="N822" s="21">
+        <v>0</v>
+      </c>
+      <c r="O822" s="21">
+        <v>0</v>
+      </c>
+      <c r="P822" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q822" s="2"/>
+      <c r="R822" s="2">
+        <v>980103988319</v>
+      </c>
+    </row>
+    <row r="823" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A823" s="2">
+        <v>20180313</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C823" s="2">
+        <v>600438</v>
+      </c>
+      <c r="D823" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E823" s="20">
+        <v>10.47</v>
+      </c>
+      <c r="F823" s="21">
+        <v>5600</v>
+      </c>
+      <c r="G823" s="21">
+        <v>8100</v>
+      </c>
+      <c r="H823" s="21">
+        <v>58632</v>
+      </c>
+      <c r="I823" s="21">
+        <v>-58644.9</v>
+      </c>
+      <c r="J823" s="21">
+        <v>1000.1</v>
+      </c>
+      <c r="K823" s="21">
+        <v>7.71</v>
+      </c>
+      <c r="L823" s="21">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="M823" s="21">
+        <v>0</v>
+      </c>
+      <c r="N823" s="21">
+        <v>1.17</v>
+      </c>
+      <c r="O823" s="21">
+        <v>0</v>
+      </c>
+      <c r="P823" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q823" s="2">
+        <v>1124002650</v>
+      </c>
+      <c r="R823" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="824" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A824" s="2">
+        <v>20180315</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C824" s="2">
+        <v>952100</v>
+      </c>
+      <c r="D824" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E824" s="20">
+        <v>100</v>
+      </c>
+      <c r="F824" s="21">
+        <v>50125</v>
+      </c>
+      <c r="G824" s="21">
+        <v>1085</v>
+      </c>
+      <c r="H824" s="21">
+        <v>50125.04</v>
+      </c>
+      <c r="I824" s="21">
+        <v>50125.04</v>
+      </c>
+      <c r="J824" s="21">
+        <v>51125.14</v>
+      </c>
+      <c r="K824" s="21">
+        <v>0</v>
+      </c>
+      <c r="L824" s="21">
+        <v>0</v>
+      </c>
+      <c r="M824" s="21">
+        <v>0</v>
+      </c>
+      <c r="N824" s="21">
+        <v>0</v>
+      </c>
+      <c r="O824" s="21">
+        <v>0</v>
+      </c>
+      <c r="P824" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q824" s="2"/>
+      <c r="R824" s="2">
+        <v>980103988319</v>
+      </c>
+    </row>
+    <row r="825" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A825" s="2">
+        <v>20180315</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C825" s="2">
+        <v>730929</v>
+      </c>
+      <c r="D825" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E825" s="20">
+        <v>3.71</v>
+      </c>
+      <c r="F825" s="21">
+        <v>1000</v>
+      </c>
+      <c r="G825" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H825" s="21">
+        <v>3710</v>
+      </c>
+      <c r="I825" s="21">
+        <v>0</v>
+      </c>
+      <c r="J825" s="21">
+        <v>51125.14</v>
+      </c>
+      <c r="K825" s="21">
+        <v>0</v>
+      </c>
+      <c r="L825" s="21">
+        <v>0</v>
+      </c>
+      <c r="M825" s="21">
+        <v>0</v>
+      </c>
+      <c r="N825" s="21">
+        <v>0</v>
+      </c>
+      <c r="O825" s="21">
+        <v>0</v>
+      </c>
+      <c r="P825" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q825" s="2">
+        <v>1124001455</v>
+      </c>
+      <c r="R825" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="826" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A826" s="2">
+        <v>20180315</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C826" s="2">
+        <v>600438</v>
+      </c>
+      <c r="D826" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E826" s="20">
+        <v>10.17</v>
+      </c>
+      <c r="F826" s="21">
+        <v>5100</v>
+      </c>
+      <c r="G826" s="21">
+        <v>13200</v>
+      </c>
+      <c r="H826" s="21">
+        <v>51867</v>
+      </c>
+      <c r="I826" s="21">
+        <v>-51878.41</v>
+      </c>
+      <c r="J826" s="21">
+        <v>-753.27</v>
+      </c>
+      <c r="K826" s="21">
+        <v>6.81</v>
+      </c>
+      <c r="L826" s="21">
+        <v>3.56</v>
+      </c>
+      <c r="M826" s="21">
+        <v>0</v>
+      </c>
+      <c r="N826" s="21">
+        <v>1.04</v>
+      </c>
+      <c r="O826" s="21">
+        <v>0</v>
+      </c>
+      <c r="P826" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q826" s="2">
+        <v>1124002357</v>
+      </c>
+      <c r="R826" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="827" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A827" s="2">
+        <v>20180315</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C827" s="2">
+        <v>600438</v>
+      </c>
+      <c r="D827" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E827" s="20">
+        <v>10.19</v>
+      </c>
+      <c r="F827" s="21">
+        <v>5100</v>
+      </c>
+      <c r="G827" s="21">
+        <v>8100</v>
+      </c>
+      <c r="H827" s="21">
+        <v>51969</v>
+      </c>
+      <c r="I827" s="21">
+        <v>51905.599999999999</v>
+      </c>
+      <c r="J827" s="21">
+        <v>51152.33</v>
+      </c>
+      <c r="K827" s="21">
+        <v>6.82</v>
+      </c>
+      <c r="L827" s="21">
+        <v>3.57</v>
+      </c>
+      <c r="M827" s="21">
+        <v>51.97</v>
+      </c>
+      <c r="N827" s="21">
+        <v>1.04</v>
+      </c>
+      <c r="O827" s="21">
+        <v>0</v>
+      </c>
+      <c r="P827" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q827" s="2">
+        <v>1124002622</v>
+      </c>
+      <c r="R827" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="828" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A828" s="2">
+        <v>20180315</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C828" s="2">
+        <v>600703</v>
+      </c>
+      <c r="D828" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E828" s="20">
+        <v>26.39</v>
+      </c>
+      <c r="F828" s="21">
+        <v>1900</v>
+      </c>
+      <c r="G828" s="21">
+        <v>1900</v>
+      </c>
+      <c r="H828" s="21">
+        <v>50141</v>
+      </c>
+      <c r="I828" s="21">
+        <v>-50152.03</v>
+      </c>
+      <c r="J828" s="21">
+        <v>1000.3</v>
+      </c>
+      <c r="K828" s="21">
+        <v>6.59</v>
+      </c>
+      <c r="L828" s="21">
+        <v>3.44</v>
+      </c>
+      <c r="M828" s="21">
+        <v>0</v>
+      </c>
+      <c r="N828" s="21">
+        <v>1</v>
+      </c>
+      <c r="O828" s="21">
+        <v>0</v>
+      </c>
+      <c r="P828" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q828" s="2">
+        <v>1124002734</v>
+      </c>
+      <c r="R828" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="829" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A829" s="2">
+        <v>20180316</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C829" s="2"/>
+      <c r="D829" s="2"/>
+      <c r="E829" s="20">
+        <v>0</v>
+      </c>
+      <c r="F829" s="21">
+        <v>0</v>
+      </c>
+      <c r="G829" s="21">
+        <v>0</v>
+      </c>
+      <c r="H829" s="21">
+        <v>0</v>
+      </c>
+      <c r="I829" s="21">
+        <v>5696</v>
+      </c>
+      <c r="J829" s="21">
+        <v>6696.3</v>
+      </c>
+      <c r="K829" s="21">
+        <v>0</v>
+      </c>
+      <c r="L829" s="21">
+        <v>0</v>
+      </c>
+      <c r="M829" s="21">
+        <v>0</v>
+      </c>
+      <c r="N829" s="21">
+        <v>0</v>
+      </c>
+      <c r="O829" s="21">
+        <v>0</v>
+      </c>
+      <c r="P829" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q829" s="2"/>
+      <c r="R829" s="2"/>
+    </row>
+    <row r="830" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A830" s="2">
+        <v>20180316</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C830" s="2"/>
+      <c r="D830" s="2"/>
+      <c r="E830" s="20">
+        <v>0</v>
+      </c>
+      <c r="F830" s="21">
+        <v>0</v>
+      </c>
+      <c r="G830" s="21">
+        <v>0</v>
+      </c>
+      <c r="H830" s="21">
+        <v>0</v>
+      </c>
+      <c r="I830" s="21">
+        <v>-5696</v>
+      </c>
+      <c r="J830" s="21">
+        <v>1000.3</v>
+      </c>
+      <c r="K830" s="21">
+        <v>0</v>
+      </c>
+      <c r="L830" s="21">
+        <v>0</v>
+      </c>
+      <c r="M830" s="21">
+        <v>0</v>
+      </c>
+      <c r="N830" s="21">
+        <v>0</v>
+      </c>
+      <c r="O830" s="21">
+        <v>0</v>
+      </c>
+      <c r="P830" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q830" s="2"/>
+      <c r="R830" s="2"/>
+    </row>
+    <row r="831" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A831" s="2">
+        <v>20180316</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C831" s="2">
+        <v>952100</v>
+      </c>
+      <c r="D831" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E831" s="20">
+        <v>100</v>
+      </c>
+      <c r="F831" s="21">
+        <v>77676</v>
+      </c>
+      <c r="G831" s="21">
+        <v>78762</v>
+      </c>
+      <c r="H831" s="21">
+        <v>77676.78</v>
+      </c>
+      <c r="I831" s="21">
+        <v>-77676.78</v>
+      </c>
+      <c r="J831" s="21">
+        <v>-76676.479999999996</v>
+      </c>
+      <c r="K831" s="21">
+        <v>0</v>
+      </c>
+      <c r="L831" s="21">
+        <v>0</v>
+      </c>
+      <c r="M831" s="21">
+        <v>0</v>
+      </c>
+      <c r="N831" s="21">
+        <v>0</v>
+      </c>
+      <c r="O831" s="21">
+        <v>0</v>
+      </c>
+      <c r="P831" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q831" s="2"/>
+      <c r="R831" s="2">
+        <v>980103988319</v>
+      </c>
+    </row>
+    <row r="832" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A832" s="2">
+        <v>20180316</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C832" s="2">
+        <v>600438</v>
+      </c>
+      <c r="D832" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E832" s="20">
+        <v>10.06</v>
+      </c>
+      <c r="F832" s="21">
+        <v>8100</v>
+      </c>
+      <c r="G832" s="21">
+        <v>0</v>
+      </c>
+      <c r="H832" s="21">
+        <v>81486</v>
+      </c>
+      <c r="I832" s="21">
+        <v>81386.58</v>
+      </c>
+      <c r="J832" s="21">
+        <v>4710.1000000000004</v>
+      </c>
+      <c r="K832" s="21">
+        <v>10.71</v>
+      </c>
+      <c r="L832" s="21">
+        <v>5.59</v>
+      </c>
+      <c r="M832" s="21">
+        <v>81.489999999999995</v>
+      </c>
+      <c r="N832" s="21">
+        <v>1.63</v>
+      </c>
+      <c r="O832" s="21">
+        <v>0</v>
+      </c>
+      <c r="P832" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q832" s="2">
+        <v>1124016694</v>
+      </c>
+      <c r="R832" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="833" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A833" s="2">
+        <v>20180316</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C833" s="2">
+        <v>730929</v>
+      </c>
+      <c r="D833" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E833" s="20">
+        <v>3.71</v>
+      </c>
+      <c r="F833" s="21">
+        <v>1000</v>
+      </c>
+      <c r="G833" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H833" s="21">
+        <v>3710</v>
+      </c>
+      <c r="I833" s="21">
+        <v>-3710</v>
+      </c>
+      <c r="J833" s="21">
+        <v>1000.1</v>
+      </c>
+      <c r="K833" s="21">
+        <v>0</v>
+      </c>
+      <c r="L833" s="21">
+        <v>0</v>
+      </c>
+      <c r="M833" s="21">
+        <v>0</v>
+      </c>
+      <c r="N833" s="21">
+        <v>0</v>
+      </c>
+      <c r="O833" s="21">
+        <v>0</v>
+      </c>
+      <c r="P833" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q833" s="2"/>
+      <c r="R833" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="834" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A834" s="2">
+        <v>20180320</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C834" s="2">
+        <v>952100</v>
+      </c>
+      <c r="D834" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E834" s="20">
+        <v>100</v>
+      </c>
+      <c r="F834" s="21">
+        <v>39451</v>
+      </c>
+      <c r="G834" s="21">
+        <v>39310</v>
+      </c>
+      <c r="H834" s="21">
+        <v>39451.89</v>
+      </c>
+      <c r="I834" s="21">
+        <v>39451.89</v>
+      </c>
+      <c r="J834" s="21">
+        <v>40451.99</v>
+      </c>
+      <c r="K834" s="21">
+        <v>0</v>
+      </c>
+      <c r="L834" s="21">
+        <v>0</v>
+      </c>
+      <c r="M834" s="21">
+        <v>0</v>
+      </c>
+      <c r="N834" s="21">
+        <v>0</v>
+      </c>
+      <c r="O834" s="21">
+        <v>0</v>
+      </c>
+      <c r="P834" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q834" s="2"/>
+      <c r="R834" s="2">
+        <v>980103988319</v>
+      </c>
+    </row>
+    <row r="835" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A835" s="2">
+        <v>20180320</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C835" s="2">
+        <v>721</v>
+      </c>
+      <c r="D835" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E835" s="20">
+        <v>5.19</v>
+      </c>
+      <c r="F835" s="21">
+        <v>7600</v>
+      </c>
+      <c r="G835" s="21">
+        <v>7600</v>
+      </c>
+      <c r="H835" s="21">
+        <v>39444</v>
+      </c>
+      <c r="I835" s="21">
+        <v>-39451.89</v>
+      </c>
+      <c r="J835" s="21">
+        <v>1000.1</v>
+      </c>
+      <c r="K835" s="21">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="L835" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="M835" s="21">
+        <v>0</v>
+      </c>
+      <c r="N835" s="21">
+        <v>0</v>
+      </c>
+      <c r="O835" s="21">
+        <v>0</v>
+      </c>
+      <c r="P835" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q835" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E820" s="20">
-        <v>12.23</v>
-      </c>
-      <c r="F820" s="21">
+      <c r="R835" s="2">
+        <v>197574848</v>
+      </c>
+    </row>
+    <row r="836" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A836" s="2">
+        <v>20180321</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C836" s="2"/>
+      <c r="D836" s="2"/>
+      <c r="E836" s="20">
+        <v>0</v>
+      </c>
+      <c r="F836" s="21">
+        <v>0</v>
+      </c>
+      <c r="G836" s="21">
+        <v>0</v>
+      </c>
+      <c r="H836" s="21">
+        <v>0</v>
+      </c>
+      <c r="I836" s="21">
+        <v>5.07</v>
+      </c>
+      <c r="J836" s="21">
+        <v>1005.17</v>
+      </c>
+      <c r="K836" s="21">
+        <v>0</v>
+      </c>
+      <c r="L836" s="21">
+        <v>0</v>
+      </c>
+      <c r="M836" s="21">
+        <v>0</v>
+      </c>
+      <c r="N836" s="21">
+        <v>0</v>
+      </c>
+      <c r="O836" s="21">
+        <v>0</v>
+      </c>
+      <c r="P836" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q836" s="2"/>
+      <c r="R836" s="2"/>
+    </row>
+    <row r="837" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A837" s="2">
+        <v>20180321</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C837" s="2">
+        <v>721</v>
+      </c>
+      <c r="D837" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E837" s="20">
+        <v>5.24</v>
+      </c>
+      <c r="F837" s="21">
+        <v>7600</v>
+      </c>
+      <c r="G837" s="21">
+        <v>0</v>
+      </c>
+      <c r="H837" s="21">
+        <v>39824</v>
+      </c>
+      <c r="I837" s="21">
+        <v>39776.22</v>
+      </c>
+      <c r="J837" s="21">
+        <v>40781.39</v>
+      </c>
+      <c r="K837" s="21">
+        <v>4.42</v>
+      </c>
+      <c r="L837" s="21">
+        <v>3.54</v>
+      </c>
+      <c r="M837" s="21">
+        <v>39.82</v>
+      </c>
+      <c r="N837" s="21">
+        <v>0</v>
+      </c>
+      <c r="O837" s="21">
+        <v>0</v>
+      </c>
+      <c r="P837" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q837" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="R837" s="2">
+        <v>197574848</v>
+      </c>
+    </row>
+    <row r="838" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A838" s="2">
+        <v>20180321</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C838" s="2">
+        <v>806</v>
+      </c>
+      <c r="D838" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E838" s="20">
+        <v>7.59</v>
+      </c>
+      <c r="F838" s="21">
+        <v>5000</v>
+      </c>
+      <c r="G838" s="21">
+        <v>5000</v>
+      </c>
+      <c r="H838" s="21">
+        <v>37950</v>
+      </c>
+      <c r="I838" s="21">
+        <v>-37957.589999999997</v>
+      </c>
+      <c r="J838" s="21">
+        <v>2823.8</v>
+      </c>
+      <c r="K838" s="21">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="L838" s="21">
+        <v>3.4</v>
+      </c>
+      <c r="M838" s="21">
+        <v>0</v>
+      </c>
+      <c r="N838" s="21">
+        <v>0</v>
+      </c>
+      <c r="O838" s="21">
+        <v>0</v>
+      </c>
+      <c r="P838" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q838" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="R838" s="2">
+        <v>197574848</v>
+      </c>
+    </row>
+    <row r="839" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A839" s="2">
+        <v>20180322</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C839" s="2">
+        <v>952100</v>
+      </c>
+      <c r="D839" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E839" s="20">
+        <v>100</v>
+      </c>
+      <c r="F839" s="21">
+        <v>39310</v>
+      </c>
+      <c r="G839" s="21">
+        <v>0</v>
+      </c>
+      <c r="H839" s="21">
+        <v>39310.239999999998</v>
+      </c>
+      <c r="I839" s="21">
+        <v>39310.239999999998</v>
+      </c>
+      <c r="J839" s="21">
+        <v>42134.04</v>
+      </c>
+      <c r="K839" s="21">
+        <v>0</v>
+      </c>
+      <c r="L839" s="21">
+        <v>0</v>
+      </c>
+      <c r="M839" s="21">
+        <v>0</v>
+      </c>
+      <c r="N839" s="21">
+        <v>0</v>
+      </c>
+      <c r="O839" s="21">
+        <v>0</v>
+      </c>
+      <c r="P839" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q839" s="2"/>
+      <c r="R839" s="2">
+        <v>980103988319</v>
+      </c>
+    </row>
+    <row r="840" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A840" s="2">
+        <v>20180322</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C840" s="2">
+        <v>600703</v>
+      </c>
+      <c r="D840" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E840" s="20">
+        <v>25.8</v>
+      </c>
+      <c r="F840" s="21">
+        <v>1600</v>
+      </c>
+      <c r="G840" s="21">
+        <v>3500</v>
+      </c>
+      <c r="H840" s="21">
+        <v>41280</v>
+      </c>
+      <c r="I840" s="21">
+        <v>-41289.089999999997</v>
+      </c>
+      <c r="J840" s="21">
+        <v>844.95</v>
+      </c>
+      <c r="K840" s="21">
+        <v>5.42</v>
+      </c>
+      <c r="L840" s="21">
+        <v>2.84</v>
+      </c>
+      <c r="M840" s="21">
+        <v>0</v>
+      </c>
+      <c r="N840" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="O840" s="21">
+        <v>0</v>
+      </c>
+      <c r="P840" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q840" s="2">
+        <v>1124000624</v>
+      </c>
+      <c r="R840" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="841" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A841" s="2">
+        <v>20180323</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C841" s="2">
+        <v>952100</v>
+      </c>
+      <c r="D841" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E841" s="20">
+        <v>100</v>
+      </c>
+      <c r="F841" s="21">
+        <v>155</v>
+      </c>
+      <c r="G841" s="21">
+        <v>7</v>
+      </c>
+      <c r="H841" s="21">
+        <v>155.05000000000001</v>
+      </c>
+      <c r="I841" s="21">
+        <v>155.05000000000001</v>
+      </c>
+      <c r="J841" s="21">
+        <v>1000</v>
+      </c>
+      <c r="K841" s="21">
+        <v>0</v>
+      </c>
+      <c r="L841" s="21">
+        <v>0</v>
+      </c>
+      <c r="M841" s="21">
+        <v>0</v>
+      </c>
+      <c r="N841" s="21">
+        <v>0</v>
+      </c>
+      <c r="O841" s="21">
+        <v>0</v>
+      </c>
+      <c r="P841" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q841" s="2"/>
+      <c r="R841" s="2">
+        <v>980103988319</v>
+      </c>
+    </row>
+    <row r="842" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A842" s="2">
+        <v>20180323</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C842" s="2">
+        <v>600929</v>
+      </c>
+      <c r="D842" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E842" s="20">
+        <v>0</v>
+      </c>
+      <c r="F842" s="21">
+        <v>1000</v>
+      </c>
+      <c r="G842" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H842" s="21">
+        <v>0</v>
+      </c>
+      <c r="I842" s="21">
+        <v>0</v>
+      </c>
+      <c r="J842" s="21">
+        <v>1000</v>
+      </c>
+      <c r="K842" s="21">
+        <v>0</v>
+      </c>
+      <c r="L842" s="21">
+        <v>0</v>
+      </c>
+      <c r="M842" s="21">
+        <v>0</v>
+      </c>
+      <c r="N842" s="21">
+        <v>0</v>
+      </c>
+      <c r="O842" s="21">
+        <v>0</v>
+      </c>
+      <c r="P842" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q842" s="2">
+        <v>1124001455</v>
+      </c>
+      <c r="R842" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="843" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A843" s="2">
+        <v>20180327</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C843" s="2">
+        <v>952100</v>
+      </c>
+      <c r="D843" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E843" s="20">
+        <v>100</v>
+      </c>
+      <c r="F843" s="21">
+        <v>2454</v>
+      </c>
+      <c r="G843" s="21">
+        <v>2462</v>
+      </c>
+      <c r="H843" s="21">
+        <v>2454.7600000000002</v>
+      </c>
+      <c r="I843" s="21">
+        <v>-2454.7600000000002</v>
+      </c>
+      <c r="J843" s="21">
+        <v>-1454.76</v>
+      </c>
+      <c r="K843" s="21">
+        <v>0</v>
+      </c>
+      <c r="L843" s="21">
+        <v>0</v>
+      </c>
+      <c r="M843" s="21">
+        <v>0</v>
+      </c>
+      <c r="N843" s="21">
+        <v>0</v>
+      </c>
+      <c r="O843" s="21">
+        <v>0</v>
+      </c>
+      <c r="P843" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q843" s="2"/>
+      <c r="R843" s="2">
+        <v>980103988319</v>
+      </c>
+    </row>
+    <row r="844" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A844" s="2">
+        <v>20180327</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C844" s="2">
+        <v>601336</v>
+      </c>
+      <c r="D844" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E844" s="20">
+        <v>45.8</v>
+      </c>
+      <c r="F844" s="21">
+        <v>800</v>
+      </c>
+      <c r="G844" s="21">
+        <v>900</v>
+      </c>
+      <c r="H844" s="21">
+        <v>36640</v>
+      </c>
+      <c r="I844" s="21">
+        <v>-36648.06</v>
+      </c>
+      <c r="J844" s="21">
+        <v>-38102.82</v>
+      </c>
+      <c r="K844" s="21">
+        <v>4.82</v>
+      </c>
+      <c r="L844" s="21">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="M844" s="21">
+        <v>0</v>
+      </c>
+      <c r="N844" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="O844" s="21">
+        <v>0</v>
+      </c>
+      <c r="P844" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q844" s="2">
+        <v>1124002707</v>
+      </c>
+      <c r="R844" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="845" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A845" s="2">
+        <v>20180327</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C845" s="2">
+        <v>806</v>
+      </c>
+      <c r="D845" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E845" s="20">
+        <v>7.83</v>
+      </c>
+      <c r="F845" s="21">
+        <v>5000</v>
+      </c>
+      <c r="G845" s="21">
+        <v>0</v>
+      </c>
+      <c r="H845" s="21">
+        <v>39150</v>
+      </c>
+      <c r="I845" s="21">
+        <v>39103.019999999997</v>
+      </c>
+      <c r="J845" s="21">
+        <v>1000.2</v>
+      </c>
+      <c r="K845" s="21">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="L845" s="21">
+        <v>3.47</v>
+      </c>
+      <c r="M845" s="21">
+        <v>39.15</v>
+      </c>
+      <c r="N845" s="21">
+        <v>0</v>
+      </c>
+      <c r="O845" s="21">
+        <v>0</v>
+      </c>
+      <c r="P845" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q845" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="R845" s="2">
+        <v>197574848</v>
+      </c>
+    </row>
+    <row r="846" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A846" s="2">
+        <v>20180329</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C846" s="2">
+        <v>952100</v>
+      </c>
+      <c r="D846" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E846" s="20">
+        <v>100</v>
+      </c>
+      <c r="F846" s="21">
+        <v>1972</v>
+      </c>
+      <c r="G846" s="21">
+        <v>489</v>
+      </c>
+      <c r="H846" s="21">
+        <v>1972.96</v>
+      </c>
+      <c r="I846" s="21">
+        <v>1972.96</v>
+      </c>
+      <c r="J846" s="21">
+        <v>2973.16</v>
+      </c>
+      <c r="K846" s="21">
+        <v>0</v>
+      </c>
+      <c r="L846" s="21">
+        <v>0</v>
+      </c>
+      <c r="M846" s="21">
+        <v>0</v>
+      </c>
+      <c r="N846" s="21">
+        <v>0</v>
+      </c>
+      <c r="O846" s="21">
+        <v>0</v>
+      </c>
+      <c r="P846" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q846" s="2"/>
+      <c r="R846" s="2">
+        <v>980103988319</v>
+      </c>
+    </row>
+    <row r="847" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A847" s="2">
+        <v>20180329</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C847" s="2">
+        <v>601336</v>
+      </c>
+      <c r="D847" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E847" s="20">
+        <v>46.67</v>
+      </c>
+      <c r="F847" s="21">
+        <v>900</v>
+      </c>
+      <c r="G847" s="21">
+        <v>0</v>
+      </c>
+      <c r="H847" s="21">
+        <v>42003</v>
+      </c>
+      <c r="I847" s="21">
+        <v>41951.76</v>
+      </c>
+      <c r="J847" s="21">
+        <v>44924.92</v>
+      </c>
+      <c r="K847" s="21">
+        <v>5.51</v>
+      </c>
+      <c r="L847" s="21">
+        <v>2.89</v>
+      </c>
+      <c r="M847" s="21">
+        <v>42</v>
+      </c>
+      <c r="N847" s="21">
+        <v>0.84</v>
+      </c>
+      <c r="O847" s="21">
+        <v>0</v>
+      </c>
+      <c r="P847" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q847" s="2">
+        <v>1124005457</v>
+      </c>
+      <c r="R847" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="848" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A848" s="2">
+        <v>20180329</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C848" s="2">
+        <v>603505</v>
+      </c>
+      <c r="D848" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E848" s="20">
+        <v>21.16</v>
+      </c>
+      <c r="F848" s="21">
+        <v>1600</v>
+      </c>
+      <c r="G848" s="21">
+        <v>1700</v>
+      </c>
+      <c r="H848" s="21">
+        <v>33856</v>
+      </c>
+      <c r="I848" s="21">
+        <v>-33863.449999999997</v>
+      </c>
+      <c r="J848" s="21">
+        <v>11061.47</v>
+      </c>
+      <c r="K848" s="21">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="L848" s="21">
+        <v>2.33</v>
+      </c>
+      <c r="M848" s="21">
+        <v>0</v>
+      </c>
+      <c r="N848" s="21">
+        <v>0.68</v>
+      </c>
+      <c r="O848" s="21">
+        <v>0</v>
+      </c>
+      <c r="P848" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q848" s="2">
+        <v>1124005904</v>
+      </c>
+      <c r="R848" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="849" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A849" s="2">
+        <v>20180329</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C849" s="2">
+        <v>338</v>
+      </c>
+      <c r="D849" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E849" s="20">
+        <v>8.35</v>
+      </c>
+      <c r="F849" s="21">
+        <v>2900</v>
+      </c>
+      <c r="G849" s="21">
+        <v>0</v>
+      </c>
+      <c r="H849" s="21">
+        <v>24215</v>
+      </c>
+      <c r="I849" s="21">
+        <v>24185.78</v>
+      </c>
+      <c r="J849" s="21">
+        <v>35247.25</v>
+      </c>
+      <c r="K849" s="21">
+        <v>2.86</v>
+      </c>
+      <c r="L849" s="21">
+        <v>2.14</v>
+      </c>
+      <c r="M849" s="21">
+        <v>24.22</v>
+      </c>
+      <c r="N849" s="21">
+        <v>0</v>
+      </c>
+      <c r="O849" s="21">
+        <v>0</v>
+      </c>
+      <c r="P849" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q849" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="R849" s="2">
+        <v>197574848</v>
+      </c>
+    </row>
+    <row r="850" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A850" s="2">
+        <v>20180329</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C850" s="2">
+        <v>2783</v>
+      </c>
+      <c r="D850" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E850" s="20">
+        <v>17.12</v>
+      </c>
+      <c r="F850" s="21">
+        <v>2000</v>
+      </c>
+      <c r="G850" s="21">
         <v>2100</v>
       </c>
-      <c r="G820" s="21">
+      <c r="H850" s="21">
+        <v>34240</v>
+      </c>
+      <c r="I850" s="21">
+        <v>-34246.85</v>
+      </c>
+      <c r="J850" s="21">
+        <v>1000.4</v>
+      </c>
+      <c r="K850" s="21">
+        <v>3.82</v>
+      </c>
+      <c r="L850" s="21">
+        <v>3.03</v>
+      </c>
+      <c r="M850" s="21">
+        <v>0</v>
+      </c>
+      <c r="N850" s="21">
+        <v>0</v>
+      </c>
+      <c r="O850" s="21">
+        <v>0</v>
+      </c>
+      <c r="P850" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q850" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="R850" s="2">
+        <v>197574848</v>
+      </c>
+    </row>
+    <row r="851" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A851" s="2">
+        <v>20180330</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C851" s="2">
+        <v>952100</v>
+      </c>
+      <c r="D851" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E851" s="20">
+        <v>100</v>
+      </c>
+      <c r="F851" s="21">
+        <v>489</v>
+      </c>
+      <c r="G851" s="21">
+        <v>0</v>
+      </c>
+      <c r="H851" s="21">
+        <v>489.27</v>
+      </c>
+      <c r="I851" s="21">
+        <v>489.27</v>
+      </c>
+      <c r="J851" s="21">
+        <v>1489.67</v>
+      </c>
+      <c r="K851" s="21">
+        <v>0</v>
+      </c>
+      <c r="L851" s="21">
+        <v>0</v>
+      </c>
+      <c r="M851" s="21">
+        <v>0</v>
+      </c>
+      <c r="N851" s="21">
+        <v>0</v>
+      </c>
+      <c r="O851" s="21">
+        <v>0</v>
+      </c>
+      <c r="P851" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q851" s="2"/>
+      <c r="R851" s="2">
+        <v>980103988319</v>
+      </c>
+    </row>
+    <row r="852" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A852" s="2">
+        <v>20180330</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C852" s="2">
+        <v>603505</v>
+      </c>
+      <c r="D852" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E852" s="20">
+        <v>21.4</v>
+      </c>
+      <c r="F852" s="21">
+        <v>1700</v>
+      </c>
+      <c r="G852" s="21">
+        <v>0</v>
+      </c>
+      <c r="H852" s="21">
+        <v>36380</v>
+      </c>
+      <c r="I852" s="21">
+        <v>36335.61</v>
+      </c>
+      <c r="J852" s="21">
+        <v>37825.279999999999</v>
+      </c>
+      <c r="K852" s="21">
+        <v>4.78</v>
+      </c>
+      <c r="L852" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="M852" s="21">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="N852" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="O852" s="21">
+        <v>0</v>
+      </c>
+      <c r="P852" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q852" s="2">
+        <v>1124001405</v>
+      </c>
+      <c r="R852" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="853" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A853" s="2">
+        <v>20180330</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C853" s="2">
+        <v>2783</v>
+      </c>
+      <c r="D853" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E853" s="20">
+        <v>17.45</v>
+      </c>
+      <c r="F853" s="21">
         <v>2100</v>
       </c>
-      <c r="H820" s="21">
+      <c r="G853" s="21">
+        <v>0</v>
+      </c>
+      <c r="H853" s="21">
+        <v>36645</v>
+      </c>
+      <c r="I853" s="21">
+        <v>36601.019999999997</v>
+      </c>
+      <c r="J853" s="21">
+        <v>74426.3</v>
+      </c>
+      <c r="K853" s="21">
+        <v>4.09</v>
+      </c>
+      <c r="L853" s="21">
+        <v>3.24</v>
+      </c>
+      <c r="M853" s="21">
+        <v>36.65</v>
+      </c>
+      <c r="N853" s="21">
+        <v>0</v>
+      </c>
+      <c r="O853" s="21">
+        <v>0</v>
+      </c>
+      <c r="P853" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q853" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="R853" s="2">
+        <v>197574848</v>
+      </c>
+    </row>
+    <row r="854" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A854" s="2">
+        <v>20180330</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C854" s="2">
+        <v>300299</v>
+      </c>
+      <c r="D854" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E854" s="20">
+        <v>8.25</v>
+      </c>
+      <c r="F854" s="21">
+        <v>4500</v>
+      </c>
+      <c r="G854" s="21">
+        <v>4500</v>
+      </c>
+      <c r="H854" s="21">
+        <v>37125</v>
+      </c>
+      <c r="I854" s="21">
+        <v>-37132.43</v>
+      </c>
+      <c r="J854" s="21">
+        <v>37293.870000000003</v>
+      </c>
+      <c r="K854" s="21">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="L854" s="21">
+        <v>3.29</v>
+      </c>
+      <c r="M854" s="21">
+        <v>0</v>
+      </c>
+      <c r="N854" s="21">
+        <v>0</v>
+      </c>
+      <c r="O854" s="21">
+        <v>0</v>
+      </c>
+      <c r="P854" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q854" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="R854" s="2">
+        <v>197574848</v>
+      </c>
+    </row>
+    <row r="855" spans="1:18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A855" s="2">
+        <v>20180330</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C855" s="2">
+        <v>2512</v>
+      </c>
+      <c r="D855" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E855" s="20">
+        <v>11.85</v>
+      </c>
+      <c r="F855" s="21">
+        <v>3100</v>
+      </c>
+      <c r="G855" s="21">
+        <v>3100</v>
+      </c>
+      <c r="H855" s="21">
+        <v>36735</v>
+      </c>
+      <c r="I855" s="21">
+        <v>-36742.35</v>
+      </c>
+      <c r="J855" s="21">
+        <v>551.52</v>
+      </c>
+      <c r="K855" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L855" s="21">
+        <v>3.25</v>
+      </c>
+      <c r="M855" s="21">
+        <v>0</v>
+      </c>
+      <c r="N855" s="21">
+        <v>0</v>
+      </c>
+      <c r="O855" s="21">
+        <v>0</v>
+      </c>
+      <c r="P855" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q855" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="R855" s="2">
+        <v>197574848</v>
+      </c>
+    </row>
+    <row r="856" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B856" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C856" s="12">
+        <v>540</v>
+      </c>
+      <c r="D856" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E856" s="20">
+        <v>7.35</v>
+      </c>
+      <c r="F856" s="21">
+        <v>8000</v>
+      </c>
+      <c r="G856" s="21">
+        <v>8000</v>
+      </c>
+      <c r="H856" s="21">
+        <f t="shared" ref="H856" si="0">E856*F856</f>
+        <v>58800</v>
+      </c>
+      <c r="I856" s="21">
+        <f t="shared" ref="I856:I857" si="1">H856</f>
+        <v>58800</v>
+      </c>
+      <c r="J856" s="21"/>
+      <c r="K856" s="21"/>
+      <c r="L856" s="21"/>
+      <c r="M856" s="21"/>
+      <c r="N856" s="21"/>
+      <c r="O856" s="21"/>
+      <c r="P856" s="21"/>
+    </row>
+    <row r="857" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B857" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C857" s="12">
+        <v>2512</v>
+      </c>
+      <c r="D857" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E857" s="20">
+        <v>11.85</v>
+      </c>
+      <c r="F857" s="21">
+        <v>3100</v>
+      </c>
+      <c r="G857" s="21">
+        <v>3100</v>
+      </c>
+      <c r="H857" s="21">
+        <f t="shared" ref="H857:H861" si="2">E857*F857</f>
+        <v>36735</v>
+      </c>
+      <c r="I857" s="21">
+        <f t="shared" si="1"/>
+        <v>36735</v>
+      </c>
+      <c r="J857" s="21"/>
+      <c r="K857" s="21"/>
+      <c r="L857" s="21"/>
+      <c r="M857" s="21"/>
+      <c r="N857" s="21"/>
+      <c r="O857" s="21"/>
+      <c r="P857" s="21"/>
+    </row>
+    <row r="858" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B858" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C858" s="12">
+        <v>300299</v>
+      </c>
+      <c r="D858" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E858" s="20">
+        <v>8.25</v>
+      </c>
+      <c r="F858" s="21">
+        <v>4500</v>
+      </c>
+      <c r="G858" s="21">
+        <v>4500</v>
+      </c>
+      <c r="H858" s="21">
         <f t="shared" si="2"/>
-        <v>25683</v>
-      </c>
-      <c r="I820" s="21">
-        <f t="shared" ref="I820" si="5">H820</f>
-        <v>25683</v>
-      </c>
-      <c r="J820" s="21"/>
-      <c r="K820" s="21"/>
-      <c r="L820" s="21"/>
-      <c r="M820" s="21"/>
-      <c r="N820" s="21"/>
-      <c r="O820" s="21"/>
-      <c r="P820" s="21"/>
+        <v>37125</v>
+      </c>
+      <c r="I858" s="21">
+        <f t="shared" ref="I858:I859" si="3">H858</f>
+        <v>37125</v>
+      </c>
+      <c r="J858" s="21"/>
+      <c r="K858" s="21"/>
+      <c r="L858" s="21"/>
+      <c r="M858" s="21"/>
+      <c r="N858" s="21"/>
+      <c r="O858" s="21"/>
+      <c r="P858" s="21"/>
+    </row>
+    <row r="859" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B859" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C859" s="12">
+        <v>600703</v>
+      </c>
+      <c r="D859" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E859" s="20">
+        <v>23.33</v>
+      </c>
+      <c r="F859" s="21">
+        <v>3500</v>
+      </c>
+      <c r="G859" s="21">
+        <v>3500</v>
+      </c>
+      <c r="H859" s="21">
+        <f t="shared" si="2"/>
+        <v>81655</v>
+      </c>
+      <c r="I859" s="21">
+        <f t="shared" si="3"/>
+        <v>81655</v>
+      </c>
+      <c r="J859" s="21"/>
+      <c r="K859" s="21"/>
+      <c r="L859" s="21"/>
+      <c r="M859" s="21"/>
+      <c r="N859" s="21"/>
+      <c r="O859" s="21"/>
+      <c r="P859" s="21"/>
+    </row>
+    <row r="860" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B860" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C860" s="12">
+        <v>600929</v>
+      </c>
+      <c r="D860" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E860" s="20">
+        <v>7.82</v>
+      </c>
+      <c r="F860" s="21">
+        <v>1000</v>
+      </c>
+      <c r="G860" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H860" s="21">
+        <f t="shared" si="2"/>
+        <v>7820</v>
+      </c>
+      <c r="I860" s="21">
+        <f t="shared" ref="I860" si="4">H860</f>
+        <v>7820</v>
+      </c>
+      <c r="J860" s="21"/>
+      <c r="K860" s="21"/>
+      <c r="L860" s="21"/>
+      <c r="M860" s="21"/>
+      <c r="N860" s="21"/>
+      <c r="O860" s="21"/>
+      <c r="P860" s="21"/>
+    </row>
+    <row r="861" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E861" s="20"/>
+      <c r="F861" s="21"/>
+      <c r="G861" s="21"/>
+      <c r="H861" s="21"/>
+      <c r="I861" s="21"/>
+      <c r="J861" s="21"/>
+      <c r="K861" s="21"/>
+      <c r="L861" s="21"/>
+      <c r="M861" s="21"/>
+      <c r="N861" s="21"/>
+      <c r="O861" s="21"/>
+      <c r="P861" s="21"/>
+    </row>
+    <row r="862" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E862" s="20"/>
+      <c r="F862" s="21"/>
+      <c r="G862" s="21"/>
+      <c r="H862" s="21"/>
+      <c r="I862" s="21"/>
+      <c r="J862" s="21"/>
+      <c r="K862" s="21"/>
+      <c r="L862" s="21"/>
+      <c r="M862" s="21"/>
+      <c r="N862" s="21"/>
+      <c r="O862" s="21"/>
+      <c r="P862" s="21"/>
+    </row>
+    <row r="863" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E863" s="20"/>
+      <c r="F863" s="21"/>
+      <c r="G863" s="21"/>
+      <c r="H863" s="21"/>
+      <c r="I863" s="21"/>
+      <c r="J863" s="21"/>
+      <c r="K863" s="21"/>
+      <c r="L863" s="21"/>
+      <c r="M863" s="21"/>
+      <c r="N863" s="21"/>
+      <c r="O863" s="21"/>
+      <c r="P863" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
